--- a/output.xlsx
+++ b/output.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Taula General" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Napoles" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sants" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +29,9 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K20"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,17 +472,27 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>Inici Seguent Ruta</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>Temps ruta</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>Num Entregues</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Assignació</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Plnif vs Real</t>
         </is>
       </c>
     </row>
@@ -515,16 +530,24 @@
           <t>09:34</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>09:44</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>28</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>13</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
@@ -561,16 +584,24 @@
           <t>08:49</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>08:59</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>24</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
+      </c>
+      <c r="M4" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="5">
@@ -607,16 +638,24 @@
           <t>09:02</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>09:12</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>14</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="6">
@@ -653,16 +692,24 @@
           <t>10:21</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>19</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>9</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
+      </c>
+      <c r="M6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -699,16 +746,24 @@
           <t>10:33</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>21</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -745,16 +800,24 @@
           <t>10:22</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>21</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>7</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="9">
@@ -791,16 +854,24 @@
           <t>11:21</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v>28</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>9</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
@@ -837,16 +908,24 @@
           <t>11:25</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>32</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>9</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="11">
@@ -883,16 +962,24 @@
           <t>11:35</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>10</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -929,16 +1016,24 @@
           <t>12:26</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>31</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>12</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -975,16 +1070,24 @@
           <t>12:14</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>24</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>10</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="14">
@@ -1021,16 +1124,24 @@
           <t>11:42</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>17</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
@@ -1067,16 +1178,24 @@
           <t>12:39</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>12:49</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>19</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>5</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="16">
@@ -1113,16 +1232,24 @@
           <t>12:25</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>24</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="17">
@@ -1159,16 +1286,24 @@
           <t>12:55</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>19</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>8</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="18">
@@ -1205,16 +1340,24 @@
           <t>13:13</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>18</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>9</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="19">
@@ -1251,16 +1394,24 @@
           <t>13:27</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>23</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>4</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>A</t>
         </is>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1297,18 +1448,945 @@
           <t>17:26</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>38</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>4</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1713242387498 - 00 - SANTS - GRAN VIA - 08:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>08:33</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-    </row>
+      <c r="M21" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1713239775355 - 02 - SANTS - RAMBLAS - 08:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>22</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1713239735760 - 01 - SANTS - RAVAL - 08:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1713240578580 - 04 - SANTS - ENTENSA - 09:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1713240071084 - 05 - SANTS - M CRISTINA - 09:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>19</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1713239595199 - 03 - SANTS - L'ILLA - 09:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>18</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1713239888576 - 06 - SANTS - SANT ANTONI - 09:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>16</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1713240917161 - 08 - SANTS - MIG - 10:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>22</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1713242321967 - 07 - OK - SANTS - M. CRISTINA - 10:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1713241025276 - 09 - SANTS - CLINIC - 10:15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>27</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1713246067817 - 11 - SANTS - URGELL - 10:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>26</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1713245707811 - 10 - SANTS - CLINIC - 10:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>16</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1713247423164 - 12 - SANTS - GOTIC - 11:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>22</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1713247397949 - 14 - SANTS - GOTIC - 12:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>21</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1713240163775 - 13 - SANTS - ROCAFORT - 12:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>16</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1713247085291 - 15 - SANTS - SYNLAB + RESTO - 12:30</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1713247136760 - 16 - SANTS -TARDE - 16:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>24</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1320,7 +2398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:S30"/>
+  <dimension ref="B2:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,17 +2419,72 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Hora Entrada</t>
+          <t>Hora Inici Torn</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>Hora Final Torn</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Hores Totals</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Hub</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
           <t>Hora Inici Ruta Plnif</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Hores Totals</t>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Ruta Real</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Fi Ruta</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Inici Seguent Ruta</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Temps ruta</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Num Entregues</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Assignació</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>Plnif vs Real</t>
         </is>
       </c>
     </row>
@@ -1382,10 +2515,62 @@
       <c r="G3" t="n">
         <v>5.9</v>
       </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1713242455985 - 01 - NAPOLES - P9 - 07:45</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>07:35</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>09:34</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>09:44</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>28</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1394,7 +2579,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1410,10 +2595,62 @@
       <c r="G4" t="n">
         <v>5.3</v>
       </c>
+      <c r="K4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1713242712275 - 02 - NAPOLES - BARCELONETA - 08:00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>08:59</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1422,7 +2659,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1437,6 +2674,58 @@
       </c>
       <c r="G5" t="n">
         <v>4.2</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1713244886435 - 04 - NAPOLES - UNIVERSITAT - 08:30</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>09:02</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>09:12</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>14</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="6">
@@ -1450,7 +2739,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1466,10 +2755,62 @@
       <c r="G6" t="n">
         <v>3.4</v>
       </c>
+      <c r="K6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1713242886048 - 05 - NAPOLES - VERDAGUER - 09:00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>08:59</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>19</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1478,7 +2819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1494,10 +2835,62 @@
       <c r="G7" t="n">
         <v>2.9</v>
       </c>
+      <c r="K7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1713246575253 - 07 - NAPOLES - Po GRACIA - 09:30</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>09:44</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>21</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1506,7 +2899,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1522,10 +2915,62 @@
       <c r="G8" t="n">
         <v>2.7</v>
       </c>
+      <c r="K8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1713243825212 - 06 - NAPOLES - UNIVERSITAT - 09:30</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>09:12</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>10:22</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>21</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-18</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1534,7 +2979,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1549,6 +2994,112 @@
       </c>
       <c r="G9" t="n">
         <v>1.4</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1713243249272 - 08 - NAPOLES - CLOT - 10:00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>28</v>
+      </c>
+      <c r="T9" t="n">
+        <v>9</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="K10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1713242568720 - 09 - NAPOLES - P9 - 10:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="11">
@@ -1561,6 +3112,58 @@
         <f>SUM(G3:G9)</f>
         <v/>
       </c>
+      <c r="K11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1713246374405 - 10 -NAPOLES - GOTIC - 10:30</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
       <c r="F12" t="inlineStr">
@@ -1571,6 +3174,58 @@
       <c r="G12" t="n">
         <v>7</v>
       </c>
+      <c r="K12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1713246501379 - 11 - NAPOLES - PROVENÇA - 10:30</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>31</v>
+      </c>
+      <c r="T12" t="n">
+        <v>12</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
@@ -1581,488 +3236,2614 @@
       <c r="G13" t="n">
         <v>18</v>
       </c>
+      <c r="K13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1713246715263 - 12 - NAPOLES - GOTIC - 11:00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>24</v>
+      </c>
+      <c r="T13" t="n">
+        <v>10</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="K14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1713246635915 - 13 - NAPOLES - LAIETANA - 11:00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>17</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="K15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1713247475491 - 15 - NAPOLES - RAMBLAS - 12:00</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>12:49</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>19</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>-15</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="K16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1713246921934 - 17 - NAPOLES - BARCELONETA - 12:00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>24</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="K17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1713246877960 - 14 - NAPOLES - GOTIC - 12:00</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>19</v>
+      </c>
+      <c r="T17" t="n">
+        <v>8</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="K18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1713246767297 - 16 - NAPOLES - BORN - 12:00</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>18</v>
+      </c>
+      <c r="T18" t="n">
+        <v>9</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="K19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1713247024593 - 18 - NAPOLES - RESTOS - 12:30</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>13:37</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>23</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="V19" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="K20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1713246974570 - 19 - NAPOLES - TARDE - 16:30</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>38</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D27" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E27" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K27" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="L27" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="Q16" s="1" t="inlineStr">
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q27" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="R16" s="1" t="inlineStr">
+      <c r="R27" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="S16" s="1" t="inlineStr">
+      <c r="S27" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="1" t="n">
+    <row r="28">
+      <c r="B28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>1713242712275</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>07:50</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>08:59</t>
         </is>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>1713242455985</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>07:35</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>09:44</t>
         </is>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="P28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>1713244886435</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>08:20</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>09:12</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="1" t="n">
+    <row r="29">
+      <c r="B29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>1713242886048</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>08:59</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>10:31</t>
         </is>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>1713246575253</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>09:44</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>10:43</t>
         </is>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="P29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>1713243825212</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>09:12</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>10:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1713246501379</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10:31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1713246374405</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1713246715263</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>12:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1713247024593</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13:27</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1713247475491</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>12:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L23" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q23" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S23" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1713242568720</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1713243249272</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>11:31</t>
-        </is>
-      </c>
-      <c r="P24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>1713246635915</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1713246877960</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>11:40</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>12:55</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1713246921934</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>11:40</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>12:25</t>
-        </is>
-      </c>
-      <c r="P25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>1713246767297</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>13:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1713246501379</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1713246374405</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1713246715263</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1713247024593</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1713247475491</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L38" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Q38" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R38" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S38" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1713242568720</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1713243249272</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1713246635915</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1713246877960</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1713246921934</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1713246767297</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1713246974570</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>17:26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:V47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Hub</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Treballador</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Torn</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Final Torn</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Hores Totals</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Hub</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Ruta Plnif</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Ruta Real</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Fi Ruta</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Inici Seguent Ruta</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Temps ruta</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Num Entregues</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Assignació</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>Plnif vs Real</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1713242387498 - 00 - SANTS - GRAN VIA - 08:00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>08:33</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12:51</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1713239775355 - 02 - SANTS - RAMBLAS - 08:00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1713239735760 - 01 - SANTS - RAVAL - 08:00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>21</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1713240578580 - 04 - SANTS - ENTENSA - 09:00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>22</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1713240071084 - 05 - SANTS - M CRISTINA - 09:00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>19</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1713239595199 - 03 - SANTS - L'ILLA - 09:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>18</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1713239888576 - 06 - SANTS - SANT ANTONI - 09:30</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>16</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="K10" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1713240917161 - 08 - SANTS - MIG - 10:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>22</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="G11">
+        <f>SUM(G3:G9)</f>
+        <v/>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1713242321967 - 07 - OK - SANTS - M. CRISTINA - 10:00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>25</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Num treballadors</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1713241025276 - 09 - SANTS - CLINIC - 10:15</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>27</v>
+      </c>
+      <c r="T12" t="n">
+        <v>13</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Num Rutes</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1713246067817 - 11 - SANTS - URGELL - 10:30</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>26</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="K14" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1713245707811 - 10 - SANTS - CLINIC - 10:30</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>16</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="K15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1713247423164 - 12 - SANTS - GOTIC - 11:30</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>22</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="K16" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1713247397949 - 14 - SANTS - GOTIC - 12:00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>21</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="K17" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1713240163775 - 13 - SANTS - ROCAFORT - 12:00</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>16</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="K18" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1713247085291 - 15 - SANTS - SYNLAB + RESTO - 12:30</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>9</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="K19" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1713247136760 - 16 - SANTS -TARDE - 16:30</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>24</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q26" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S26" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1713239735760</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1713239775355</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1713242387498</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1713239595199</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1713240071084</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1713240578580</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1713241025276</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1713242321967</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1713240917161</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1713246974570</t>
+          <t>1713240163775</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1713247423164</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1713247397949</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q37" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R37" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S37" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1713239888576</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1713245707811</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1713247085291</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1713246067817</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1713247136760</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>16:20</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>17:26</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>17:05</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,9 +30,6 @@
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,12 +58,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:N38"/>
+  <dimension ref="B2:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +479,7 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>Temps ruta</t>
+          <t>Temps Recorregut Ruta</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -493,10 +489,15 @@
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
+          <t>Temps Total Ruta</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
           <t>Assignació</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>Plnif vs Real Min</t>
         </is>
@@ -504,19 +505,19 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1713242455985 - 01 - NAPOLES - W - C22:Q50P9 - 07:45</t>
+          <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
         </is>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -526,54 +527,57 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
-        <v>13</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>59</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1713242712275 - 02 - NAPOLES - w -  BARCELONETA - 08:00</t>
+          <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
         </is>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -583,103 +587,109 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>7:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08:49</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>08:27</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>13</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1713244886435 - 04 - NAPOLES - w - UNIVERSITAT - 08:30</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>09:02</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>09:12</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
+        <v>27</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1713242886048 - 05 - NAPOLES - VERDAGUER - 09:00</t>
+          <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -687,7 +697,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -697,46 +707,49 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>08:47</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>19</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>47</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1713246575253 - 07 - NAPOLES - Po GRACIA - 09:30</t>
+          <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -744,7 +757,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -754,46 +767,49 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>60</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1713243825212 - 06 - NAPOLES - W - UNIVERSITAT - 09:30</t>
+          <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -801,7 +817,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -811,46 +827,49 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>62</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1713243249272 - 08 - NAPOLES - CLOT - 10:00</t>
+          <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -858,7 +877,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -868,46 +887,49 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>08:47</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L9" t="n">
-        <v>9</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>47</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1713242568720 - 09 - NAPOLES - P9 - 10:00</t>
+          <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -915,7 +937,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -925,54 +947,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>9</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>-10</v>
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>38</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1713246374405 - 10 -NAPOLES - GOTIC - 10:30</t>
+          <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
         </is>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -982,46 +1007,49 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>65</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1713246501379 - 11 - NAPOLES - PROVENÇA - 10:30</t>
+          <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -1029,7 +1057,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1039,54 +1067,57 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>51</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1713246715263 - 12 - NAPOLES - GOTIC - 11:00</t>
+          <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1096,46 +1127,49 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>-20</v>
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>47</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1713246635915 - 13 - NAPOLES - LAIETANA - 11:00</t>
+          <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -1143,7 +1177,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1153,54 +1187,57 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>48</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1713247475491 - 15 - NAPOLES - RAMBLAS - 12:00</t>
+          <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
         </is>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1210,46 +1247,49 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>-15</v>
+      <c r="M15" t="n">
+        <v>48</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1713246921934 - 17 - NAPOLES - BARCELONETA - 12:00</t>
+          <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -1257,7 +1297,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1267,46 +1307,49 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>-25</v>
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>26</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1713246877960 - 14 - NAPOLES - GOTIC - 12:00</t>
+          <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -1314,7 +1357,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1324,46 +1367,49 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>-25</v>
+      <c r="M17" t="n">
+        <v>76</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1713246767297 - 16 - NAPOLES - BORN - 12:00</t>
+          <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -1371,7 +1417,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1381,46 +1427,49 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>18</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>-8</v>
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>46</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1713247024593 - 18 - NAPOLES - RESTOS - 12:30</t>
+          <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -1428,7 +1477,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1438,46 +1487,49 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>61</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1713246974570 - 19 - NAPOLES - TARDE - 16:30</t>
+          <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -1485,7 +1537,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1495,103 +1547,109 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>17:36</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>-10</v>
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>40</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1713242387498 - 00 - SANTS - GRAN VIA - 08:00</t>
+          <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>08:33</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>08:43</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="1" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1713239775355 - 02 - SANTS - RAMBLAS - 08:00</t>
+          <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -1599,7 +1657,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1609,46 +1667,49 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>08:47</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>08:57</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>58</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1713239735760 - 01 - SANTS - RAVAL - 08:00</t>
+          <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -1656,7 +1717,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1666,7 +1727,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1676,36 +1737,39 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>08:49</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>37</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1713240578580 - 04 - SANTS - ENTENSA - 09:00</t>
+          <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -1713,7 +1777,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1723,37 +1787,40 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08:43</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>-17</v>
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>37</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1762,7 +1829,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1713240071084 - 05 - SANTS - M CRISTINA - 09:00</t>
+          <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -1770,7 +1837,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1780,54 +1847,57 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08:57</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>-3</v>
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>31</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="1" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1713239595199 - 03 - SANTS - L'ILLA - 09:00</t>
+          <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
         </is>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1837,54 +1907,57 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>8:45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08:49</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>09:35</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
       <c r="K26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>-11</v>
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>50</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1713239888576 - 06 - SANTS - SANT ANTONI - 09:30</t>
+          <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
         </is>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1894,54 +1967,57 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
+        <v>66</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="1" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1713240917161 - 08 - SANTS - MIG - 10:00</t>
+          <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
         </is>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1951,54 +2027,57 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>9:20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>67</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1713242321967 - 07 - OK - SANTS - M. CRISTINA - 10:00</t>
+          <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
         </is>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2008,46 +2087,49 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>10:08</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>35</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1713241025276 - 09 - SANTS - CLINIC - 10:15</t>
+          <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -2055,7 +2137,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2065,54 +2147,57 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L30" t="n">
-        <v>13</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>-25</v>
+        <v>5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>54</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1713246067817 - 11 - SANTS - URGELL - 10:30</t>
+          <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
         </is>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2122,54 +2207,57 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>-9</v>
+        <v>6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>63</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1713245707811 - 10 - SANTS - CLINIC - 10:30</t>
+          <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
         </is>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2179,46 +2267,49 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
-      </c>
-      <c r="M32" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>54</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>-10</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1713247423164 - 12 - SANTS - GOTIC - 11:30</t>
+          <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -2226,7 +2317,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2236,46 +2327,49 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>-25</v>
+        <v>5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>119</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1713247397949 - 14 - SANTS - GOTIC - 12:00</t>
+          <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -2283,7 +2377,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2293,46 +2387,49 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L34" t="n">
         <v>3</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>-9</v>
+      <c r="M34" t="n">
+        <v>40</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1713240163775 - 13 - SANTS - ROCAFORT - 12:00</t>
+          <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -2340,7 +2437,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2350,46 +2447,49 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>-25</v>
+        <v>4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>51</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1713247085291 - 15 - SANTS - SYNLAB + RESTO - 12:30</t>
+          <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -2397,7 +2497,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2407,54 +2507,57 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>32</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="1" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1713247136760 - 16 - SANTS -TARDE - 16:30</t>
+          <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
         </is>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2464,40 +2567,223 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
+        <v>4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>48</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>68</v>
+      </c>
+      <c r="L38" t="n">
         <v>3</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="M38" t="n">
+        <v>89</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>88</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>123</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>-10</v>
       </c>
     </row>
-    <row r="38"/>
+    <row r="40">
+      <c r="B40" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>69</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>90</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2509,7 +2795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T62"/>
+  <dimension ref="B2:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2555,21 +2841,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>07:18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4">
@@ -2583,21 +2869,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>07:23</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -2611,21 +2897,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
@@ -2639,21 +2925,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>08:57</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
@@ -2667,21 +2953,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -2695,21 +2981,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -2723,817 +3009,283 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">
+      <c r="B11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07:23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>08:21</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>08:22</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="G11">
-        <f>SUM(G3:G9)</f>
+      <c r="G16">
+        <f>SUM(G3:G14)</f>
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="F12" t="inlineStr">
+    <row r="17">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Num treballadors</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="G17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Num Rutes</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="G18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Total Paquets</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="1" t="inlineStr">
+      <c r="G19" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D29" s="1" t="inlineStr">
         <is>
           <t>Prioritari</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>Hub</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Plnif</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H29" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Real</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I29" s="1" t="inlineStr">
         <is>
           <t>Hora Fi Ruta</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J29" s="1" t="inlineStr">
         <is>
           <t>Inici Seguent Ruta</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
-        <is>
-          <t>Temps ruta</t>
-        </is>
-      </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>Temps Recorregut Ruta</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
         <is>
           <t>Num Entregues</t>
         </is>
       </c>
-      <c r="M17" s="1" t="inlineStr">
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t>Temps Total Ruta</t>
+        </is>
+      </c>
+      <c r="N29" s="1" t="inlineStr">
         <is>
           <t>Assignació</t>
         </is>
       </c>
-      <c r="N17" s="1" t="inlineStr">
+      <c r="O29" s="1" t="inlineStr">
         <is>
           <t>Plnif vs Real Min</t>
         </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1713242455985 - 01 - NAPOLES - W - C22:Q50P9 - 07:45</t>
-        </is>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>07:35</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>09:34</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>09:44</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>28</v>
-      </c>
-      <c r="L18" t="n">
-        <v>13</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1713242712275 - 02 - NAPOLES - w -  BARCELONETA - 08:00</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>08:49</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>08:59</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>24</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1713244886435 - 04 - NAPOLES - w - UNIVERSITAT - 08:30</t>
-        </is>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>09:02</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>09:12</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>14</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1713242886048 - 05 - NAPOLES - VERDAGUER - 09:00</t>
-        </is>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>08:59</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>10:21</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>10:31</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1713246575253 - 07 - NAPOLES - Po GRACIA - 09:30</t>
-        </is>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>09:44</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>10:33</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>21</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1713243825212 - 06 - NAPOLES - W - UNIVERSITAT - 09:30</t>
-        </is>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>21</v>
-      </c>
-      <c r="L23" t="n">
-        <v>7</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1713243249272 - 08 - NAPOLES - CLOT - 10:00</t>
-        </is>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>11:21</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>11:31</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>28</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1713242568720 - 09 - NAPOLES - P9 - 10:00</t>
-        </is>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>11:25</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>32</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1713246374405 - 10 -NAPOLES - GOTIC - 10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>10</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1713246501379 - 11 - NAPOLES - PROVENÇA - 10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>10:31</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>31</v>
-      </c>
-      <c r="L27" t="n">
-        <v>12</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1713246715263 - 12 - NAPOLES - GOTIC - 11:00</t>
-        </is>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>12:14</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>12:24</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>24</v>
-      </c>
-      <c r="L28" t="n">
-        <v>10</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1713246635915 - 13 - NAPOLES - LAIETANA - 11:00</t>
-        </is>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>17</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1713247475491 - 15 - NAPOLES - RAMBLAS - 12:00</t>
+          <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -3541,7 +3293,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3551,46 +3303,49 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>-15</v>
+      <c r="M30" t="n">
+        <v>59</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1713246921934 - 17 - NAPOLES - BARCELONETA - 12:00</t>
+          <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -3598,7 +3353,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3608,46 +3363,49 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>7:45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>-25</v>
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>41</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1713246877960 - 14 - NAPOLES - GOTIC - 12:00</t>
+          <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -3655,7 +3413,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3665,46 +3423,49 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>08:17</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>8</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>-25</v>
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>27</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1713246767297 - 16 - NAPOLES - BORN - 12:00</t>
+          <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -3712,7 +3473,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3722,46 +3483,49 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>08:47</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>9</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>-8</v>
+        <v>4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>47</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1713247024593 - 18 - NAPOLES - RESTOS - 12:30</t>
+          <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -3769,7 +3533,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3779,54 +3543,57 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>60</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1713246974570 - 19 - NAPOLES - TARDE - 16:30</t>
+          <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
         </is>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3836,590 +3603,1506 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17:26</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>17:36</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="K35" t="n">
+        <v>27</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>62</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>19</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>47</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>09:17</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>17</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="n">
         <v>38</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>30</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>65</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>23</v>
+      </c>
+      <c r="L39" t="n">
         <v>4</v>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M39" t="n">
+        <v>51</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>-10</v>
       </c>
     </row>
-    <row r="36"/>
-    <row r="37"/>
     <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
+      <c r="B40" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L40" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M40" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q40" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R40" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S40" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T40" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>10:47</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>47</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1713242712275</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
+          <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>08:59</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>0</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1713242455985</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>07:35</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>09:44</t>
-        </is>
-      </c>
-      <c r="P41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1713244886435</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>09:12</t>
-        </is>
+          <t>10:48</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>20</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>48</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
+        </is>
+      </c>
+      <c r="D42" t="b">
         <v>1</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1713242886048</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>08:59</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10:31</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>1</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1713246575253</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>09:44</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>13</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>1713243825212</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
+        </is>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>12</v>
+      </c>
+      <c r="L43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1713246501379</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>10:31</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>1713246374405</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
       <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1713246715263</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>12:14</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
+        </is>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>20</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8</v>
+      </c>
+      <c r="M44" t="n">
+        <v>76</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
+        </is>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>11:51</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>18</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>46</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
+        </is>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>19</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>61</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
+        </is>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>26</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>40</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
+        </is>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>19</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L53" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M53" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q53" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R53" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S53" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T53" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1721101633540</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1721101666656</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1721102119136</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1721102182608</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1721102651888</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>14</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1721102268642</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1721099914915</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1721102627472</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1713247024593</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>12:36</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>13:27</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>1713247475491</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>12:39</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1721101949589</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1721102224478</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="D63" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F63" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="J63" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K63" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L51" s="1" t="inlineStr">
+      <c r="L63" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M51" s="1" t="inlineStr">
+      <c r="M63" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="Q51" s="1" t="inlineStr">
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q63" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="R51" s="1" t="inlineStr">
+      <c r="R63" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="S51" s="1" t="inlineStr">
+      <c r="S63" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="T51" s="1" t="inlineStr">
+      <c r="T63" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1713242568720</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+    <row r="64">
+      <c r="B64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1721101715356</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1721101989601</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="P64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1721102522098</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>1713243249272</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J72" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K72" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L72" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M72" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q72" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R72" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S72" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T72" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1721102546874</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>11:31</t>
-        </is>
-      </c>
-      <c r="P52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>1713246635915</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1713246877960</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>12:50</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>1713246921934</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>12:20</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="P53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>1713246767297</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>13:13</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1721102423348</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>1721102462855</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="D81" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E81" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F81" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1713246974570</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>17:26</t>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J81" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K81" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L81" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M81" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q81" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R81" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S81" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T81" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1721102082040</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>07:35</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>08:16</t>
+        </is>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1721102486645</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>1721102689216</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>17:09</t>
         </is>
       </c>
     </row>
@@ -4434,7 +5117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T51"/>
+  <dimension ref="B2:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,21 +5163,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>07:18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
@@ -4508,21 +5191,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
@@ -4536,7 +5219,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -4546,11 +5229,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6">
@@ -4564,21 +5247,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4592,21 +5275,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>10:01</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8">
@@ -4620,589 +5303,171 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Total Hores</t>
-        </is>
-      </c>
-      <c r="G10">
-        <f>SUM(G3:G8)</f>
-        <v/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>Num treballadors</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>19.1</v>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="G11">
+        <f>SUM(G3:G9)</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="F12" t="inlineStr">
         <is>
-          <t>Num Rutes</t>
+          <t>Num treballadors</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
+          <t>Num Rutes</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Total Paquets</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="1" t="inlineStr">
+      <c r="G14" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>Prioritari</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E24" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>Hub</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Plnif</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H24" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Real</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I24" s="1" t="inlineStr">
         <is>
           <t>Hora Fi Ruta</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J24" s="1" t="inlineStr">
         <is>
           <t>Inici Seguent Ruta</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>Temps ruta</t>
-        </is>
-      </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>Temps Recorregut Ruta</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
         <is>
           <t>Num Entregues</t>
         </is>
       </c>
-      <c r="M16" s="1" t="inlineStr">
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>Temps Total Ruta</t>
+        </is>
+      </c>
+      <c r="N24" s="1" t="inlineStr">
         <is>
           <t>Assignació</t>
         </is>
       </c>
-      <c r="N16" s="1" t="inlineStr">
+      <c r="O24" s="1" t="inlineStr">
         <is>
           <t>Plnif vs Real Min</t>
         </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1713242387498 - 00 - SANTS - GRAN VIA - 08:00</t>
-        </is>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>08:33</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>08:43</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>15</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1713239775355 - 02 - SANTS - RAMBLAS - 08:00</t>
-        </is>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>08:47</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>08:57</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>22</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1713239735760 - 01 - SANTS - RAVAL - 08:00</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>08:39</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>08:49</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>21</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1713240578580 - 04 - SANTS - ENTENSA - 09:00</t>
-        </is>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>08:43</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>09:54</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>10:04</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>22</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1713240071084 - 05 - SANTS - M CRISTINA - 09:00</t>
-        </is>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>08:57</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>09:58</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>10:08</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1713239595199 - 03 - SANTS - L'ILLA - 09:00</t>
-        </is>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>08:49</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>09:35</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>18</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1713239888576 - 06 - SANTS - SANT ANTONI - 09:30</t>
-        </is>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10:11</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>10:21</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>16</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1713240917161 - 08 - SANTS - MIG - 10:00</t>
-        </is>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>16/04/2024</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>10:04</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>22</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1713242321967 - 07 - OK - SANTS - M. CRISTINA - 10:00</t>
+          <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -5210,7 +5475,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5220,46 +5485,49 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>58</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1713241025276 - 09 - SANTS - CLINIC - 10:15</t>
+          <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -5267,7 +5535,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5277,46 +5545,49 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>13</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>-25</v>
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>37</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1713246067817 - 11 - SANTS - URGELL - 10:30</t>
+          <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -5324,7 +5595,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5334,46 +5605,49 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>-9</v>
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>37</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1713245707811 - 10 - SANTS - CLINIC - 10:30</t>
+          <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -5381,7 +5655,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5391,54 +5665,57 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>-10</v>
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>31</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1713247423164 - 12 - SANTS - GOTIC - 11:30</t>
+          <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
         </is>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5448,54 +5725,57 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>8:45</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>-25</v>
+        <v>5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>50</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1713247397949 - 14 - SANTS - GOTIC - 12:00</t>
+          <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
         </is>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5505,54 +5785,57 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>-9</v>
+        <v>5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>66</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1713240163775 - 13 - SANTS - ROCAFORT - 12:00</t>
+          <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
         </is>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5562,54 +5845,57 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>9:20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>-25</v>
+      <c r="M31" t="n">
+        <v>67</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1713247085291 - 15 - SANTS - SYNLAB + RESTO - 12:30</t>
+          <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
         </is>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5619,46 +5905,49 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>35</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1713247136760 - 16 - SANTS -TARDE - 16:30</t>
+          <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -5666,7 +5955,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5676,547 +5965,1216 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L33" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>54</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
+        </is>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>21</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>63</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
+        </is>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>19</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>54</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>84</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>119</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>19</v>
+      </c>
+      <c r="L37" t="n">
         <v>3</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="34"/>
-    <row r="35"/>
+      <c r="M37" t="n">
+        <v>40</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
+      <c r="B38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>10:39</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L38" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M38" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q38" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R38" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S38" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T38" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>23</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>51</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1713242387498</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
+          <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>08:43</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>0</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1713239775355</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>08:57</t>
-        </is>
-      </c>
-      <c r="P39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1713239735760</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>08:49</t>
-        </is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>11</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>32</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1713240578580</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>08:43</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10:04</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>1</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1713240071084</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>08:57</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>10:08</t>
-        </is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>20</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1713239595199</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>08:49</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1713240917161</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>10:04</t>
-        </is>
+          <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>2</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1713242321967</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>10:08</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>11:18</t>
-        </is>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>68</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1713241025276</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>11:48</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1713247423164</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
+          <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
+        </is>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11:51</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>15</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>3</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1713240163775</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>12:33</t>
-        </is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>88</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>17</v>
+        <v>123</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1713247397949</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>11:51</t>
-        </is>
+          <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
+        </is>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12:43</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1713247085291</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>12:43</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>12:59</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>69</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>90</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T48" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L49" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M49" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q49" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R49" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S49" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T49" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
+      <c r="B49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1721100355845</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1721100247896</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1721100497594</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>08:37</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1713239888576</t>
+          <t>1721100630101</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10:21</t>
-        </is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1713245707811</t>
+          <t>1721100593141</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>11:04</t>
-        </is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>1713247136760</t>
+          <t>1721101262949</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17:05</t>
-        </is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1721101127690</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1721100447653</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1721100178035</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1721101394043</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1721101020078</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>10</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1721101237043</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1721101422578</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K60" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L60" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M60" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q60" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R60" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S60" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T60" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1721100704935</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1721100922012</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1721101164491</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1713246067817</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>10:21</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>11:36</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1721101195978</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1721101452774</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1721101486211</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:O41"/>
+  <dimension ref="B2:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Prioritari</t>
+          <t>Tipus Bici</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -484,12 +484,12 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
+          <t>Temps Total Ruta</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
           <t>Num Entregues</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>Temps Total Ruta</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
@@ -512,8 +512,10 @@
           <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
         </is>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -549,10 +551,10 @@
         <v>24</v>
       </c>
       <c r="L3" t="n">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
         <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>59</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -572,8 +574,10 @@
           <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
         </is>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -609,10 +613,10 @@
         <v>13</v>
       </c>
       <c r="L4" t="n">
+        <v>41</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -632,8 +636,10 @@
           <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -669,10 +675,10 @@
         <v>13</v>
       </c>
       <c r="L5" t="n">
+        <v>27</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>27</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -692,8 +698,10 @@
           <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -729,10 +737,10 @@
         <v>19</v>
       </c>
       <c r="L6" t="n">
+        <v>47</v>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>47</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -752,8 +760,10 @@
           <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
         </is>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -789,10 +799,10 @@
         <v>25</v>
       </c>
       <c r="L7" t="n">
+        <v>60</v>
+      </c>
+      <c r="M7" t="n">
         <v>5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>60</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -812,8 +822,10 @@
           <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
         </is>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -849,10 +861,10 @@
         <v>27</v>
       </c>
       <c r="L8" t="n">
+        <v>62</v>
+      </c>
+      <c r="M8" t="n">
         <v>5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>62</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -872,8 +884,10 @@
           <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
         </is>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -909,10 +923,10 @@
         <v>19</v>
       </c>
       <c r="L9" t="n">
+        <v>47</v>
+      </c>
+      <c r="M9" t="n">
         <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>47</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -932,8 +946,10 @@
           <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
         </is>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -969,10 +985,10 @@
         <v>17</v>
       </c>
       <c r="L10" t="n">
+        <v>38</v>
+      </c>
+      <c r="M10" t="n">
         <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>38</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -992,8 +1008,10 @@
           <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
         </is>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1029,10 +1047,10 @@
         <v>30</v>
       </c>
       <c r="L11" t="n">
+        <v>65</v>
+      </c>
+      <c r="M11" t="n">
         <v>5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>65</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1052,8 +1070,10 @@
           <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
         </is>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1089,10 +1109,10 @@
         <v>23</v>
       </c>
       <c r="L12" t="n">
+        <v>51</v>
+      </c>
+      <c r="M12" t="n">
         <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>51</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1112,8 +1132,10 @@
           <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
         </is>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1149,10 +1171,10 @@
         <v>19</v>
       </c>
       <c r="L13" t="n">
+        <v>47</v>
+      </c>
+      <c r="M13" t="n">
         <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>47</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1172,8 +1194,10 @@
           <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
         </is>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1209,10 +1233,10 @@
         <v>20</v>
       </c>
       <c r="L14" t="n">
+        <v>48</v>
+      </c>
+      <c r="M14" t="n">
         <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>48</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1232,8 +1256,10 @@
           <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
         </is>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1269,10 +1295,10 @@
         <v>13</v>
       </c>
       <c r="L15" t="n">
+        <v>48</v>
+      </c>
+      <c r="M15" t="n">
         <v>5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>48</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1292,8 +1318,10 @@
           <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
         </is>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1329,10 +1357,10 @@
         <v>12</v>
       </c>
       <c r="L16" t="n">
+        <v>26</v>
+      </c>
+      <c r="M16" t="n">
         <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>26</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1352,8 +1380,10 @@
           <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
         </is>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1389,10 +1419,10 @@
         <v>20</v>
       </c>
       <c r="L17" t="n">
+        <v>76</v>
+      </c>
+      <c r="M17" t="n">
         <v>8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>76</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1412,8 +1442,10 @@
           <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
         </is>
       </c>
-      <c r="D18" t="b">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1449,10 +1481,10 @@
         <v>18</v>
       </c>
       <c r="L18" t="n">
+        <v>46</v>
+      </c>
+      <c r="M18" t="n">
         <v>4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>46</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1472,8 +1504,10 @@
           <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
         </is>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1509,10 +1543,10 @@
         <v>19</v>
       </c>
       <c r="L19" t="n">
+        <v>61</v>
+      </c>
+      <c r="M19" t="n">
         <v>6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>61</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1532,8 +1566,10 @@
           <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
         </is>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1569,10 +1605,10 @@
         <v>26</v>
       </c>
       <c r="L20" t="n">
+        <v>40</v>
+      </c>
+      <c r="M20" t="n">
         <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>40</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1592,8 +1628,10 @@
           <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
         </is>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1629,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="L21" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>19</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1652,8 +1690,10 @@
           <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
         </is>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1689,10 +1729,10 @@
         <v>16</v>
       </c>
       <c r="L22" t="n">
+        <v>58</v>
+      </c>
+      <c r="M22" t="n">
         <v>6</v>
-      </c>
-      <c r="M22" t="n">
-        <v>58</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1712,8 +1752,10 @@
           <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
         </is>
       </c>
-      <c r="D23" t="b">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1749,10 +1791,10 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
+        <v>37</v>
+      </c>
+      <c r="M23" t="n">
         <v>3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>37</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1772,8 +1814,10 @@
           <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
         </is>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1809,10 +1853,10 @@
         <v>16</v>
       </c>
       <c r="L24" t="n">
+        <v>37</v>
+      </c>
+      <c r="M24" t="n">
         <v>3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>37</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1832,8 +1876,10 @@
           <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
         </is>
       </c>
-      <c r="D25" t="b">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1869,10 +1915,10 @@
         <v>17</v>
       </c>
       <c r="L25" t="n">
+        <v>31</v>
+      </c>
+      <c r="M25" t="n">
         <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>31</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1892,8 +1938,10 @@
           <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
         </is>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1929,10 +1977,10 @@
         <v>15</v>
       </c>
       <c r="L26" t="n">
+        <v>50</v>
+      </c>
+      <c r="M26" t="n">
         <v>5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>50</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1952,8 +2000,10 @@
           <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
         </is>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1989,10 +2039,10 @@
         <v>31</v>
       </c>
       <c r="L27" t="n">
+        <v>66</v>
+      </c>
+      <c r="M27" t="n">
         <v>5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>66</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2012,8 +2062,10 @@
           <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
         </is>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2049,10 +2101,10 @@
         <v>25</v>
       </c>
       <c r="L28" t="n">
+        <v>67</v>
+      </c>
+      <c r="M28" t="n">
         <v>6</v>
-      </c>
-      <c r="M28" t="n">
-        <v>67</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2072,8 +2124,10 @@
           <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
         </is>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2109,10 +2163,10 @@
         <v>14</v>
       </c>
       <c r="L29" t="n">
+        <v>35</v>
+      </c>
+      <c r="M29" t="n">
         <v>3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>35</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2132,8 +2186,10 @@
           <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
         </is>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2169,10 +2225,10 @@
         <v>19</v>
       </c>
       <c r="L30" t="n">
+        <v>54</v>
+      </c>
+      <c r="M30" t="n">
         <v>5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>54</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2192,8 +2248,10 @@
           <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
         </is>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2229,10 +2287,10 @@
         <v>21</v>
       </c>
       <c r="L31" t="n">
+        <v>63</v>
+      </c>
+      <c r="M31" t="n">
         <v>6</v>
-      </c>
-      <c r="M31" t="n">
-        <v>63</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2252,8 +2310,10 @@
           <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
         </is>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2289,10 +2349,10 @@
         <v>19</v>
       </c>
       <c r="L32" t="n">
+        <v>54</v>
+      </c>
+      <c r="M32" t="n">
         <v>5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>54</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2312,8 +2372,10 @@
           <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
-      <c r="D33" t="b">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2349,10 +2411,10 @@
         <v>84</v>
       </c>
       <c r="L33" t="n">
+        <v>119</v>
+      </c>
+      <c r="M33" t="n">
         <v>5</v>
-      </c>
-      <c r="M33" t="n">
-        <v>119</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2372,8 +2434,10 @@
           <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
         </is>
       </c>
-      <c r="D34" t="b">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2409,10 +2473,10 @@
         <v>19</v>
       </c>
       <c r="L34" t="n">
+        <v>40</v>
+      </c>
+      <c r="M34" t="n">
         <v>3</v>
-      </c>
-      <c r="M34" t="n">
-        <v>40</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2432,8 +2496,10 @@
           <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
         </is>
       </c>
-      <c r="D35" t="b">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2469,10 +2535,10 @@
         <v>23</v>
       </c>
       <c r="L35" t="n">
+        <v>51</v>
+      </c>
+      <c r="M35" t="n">
         <v>4</v>
-      </c>
-      <c r="M35" t="n">
-        <v>51</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2492,8 +2558,10 @@
           <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
         </is>
       </c>
-      <c r="D36" t="b">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2529,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="L36" t="n">
+        <v>32</v>
+      </c>
+      <c r="M36" t="n">
         <v>3</v>
-      </c>
-      <c r="M36" t="n">
-        <v>32</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2552,8 +2620,10 @@
           <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
         </is>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2589,10 +2659,10 @@
         <v>20</v>
       </c>
       <c r="L37" t="n">
+        <v>48</v>
+      </c>
+      <c r="M37" t="n">
         <v>4</v>
-      </c>
-      <c r="M37" t="n">
-        <v>48</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2612,8 +2682,10 @@
           <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
-      <c r="D38" t="b">
-        <v>0</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2649,10 +2721,10 @@
         <v>68</v>
       </c>
       <c r="L38" t="n">
+        <v>89</v>
+      </c>
+      <c r="M38" t="n">
         <v>3</v>
-      </c>
-      <c r="M38" t="n">
-        <v>89</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2672,8 +2744,10 @@
           <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
         </is>
       </c>
-      <c r="D39" t="b">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2709,10 +2783,10 @@
         <v>88</v>
       </c>
       <c r="L39" t="n">
+        <v>123</v>
+      </c>
+      <c r="M39" t="n">
         <v>5</v>
-      </c>
-      <c r="M39" t="n">
-        <v>123</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2732,8 +2806,10 @@
           <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
         </is>
       </c>
-      <c r="D40" t="b">
-        <v>0</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2769,10 +2845,10 @@
         <v>69</v>
       </c>
       <c r="L40" t="n">
+        <v>90</v>
+      </c>
+      <c r="M40" t="n">
         <v>3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>90</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2869,21 +2945,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>07:23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>08:21</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2897,21 +2973,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>08:57</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -2925,7 +3001,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2935,7 +3011,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08:57</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -2953,7 +3029,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2963,11 +3039,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>08:42</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -2981,17 +3057,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>08:42</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -3009,21 +3085,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>R</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10">
@@ -3037,21 +3113,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08:42</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11">
@@ -3065,17 +3141,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08:42</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -3093,21 +3169,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>07:23</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="13">
@@ -3121,21 +3197,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="14">
@@ -3207,8 +3283,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Trikes</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Percentatge Trikes</t>
+        </is>
+      </c>
+      <c r="G21">
+        <f>G20/G18</f>
+        <v/>
+      </c>
+    </row>
     <row r="26"/>
     <row r="27"/>
     <row r="28"/>
@@ -3220,7 +3315,7 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Prioritari</t>
+          <t>Tipus Bici</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
@@ -3260,12 +3355,12 @@
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
+          <t>Temps Total Ruta</t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
           <t>Num Entregues</t>
-        </is>
-      </c>
-      <c r="M29" s="1" t="inlineStr">
-        <is>
-          <t>Temps Total Ruta</t>
         </is>
       </c>
       <c r="N29" s="1" t="inlineStr">
@@ -3288,8 +3383,10 @@
           <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
         </is>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3325,10 +3422,10 @@
         <v>24</v>
       </c>
       <c r="L30" t="n">
+        <v>59</v>
+      </c>
+      <c r="M30" t="n">
         <v>5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>59</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -3348,8 +3445,10 @@
           <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
         </is>
       </c>
-      <c r="D31" t="b">
-        <v>0</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3385,10 +3484,10 @@
         <v>13</v>
       </c>
       <c r="L31" t="n">
+        <v>41</v>
+      </c>
+      <c r="M31" t="n">
         <v>4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>41</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -3408,8 +3507,10 @@
           <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
-      <c r="D32" t="b">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3445,10 +3546,10 @@
         <v>13</v>
       </c>
       <c r="L32" t="n">
+        <v>27</v>
+      </c>
+      <c r="M32" t="n">
         <v>2</v>
-      </c>
-      <c r="M32" t="n">
-        <v>27</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -3468,8 +3569,10 @@
           <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
-      <c r="D33" t="b">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3505,10 +3608,10 @@
         <v>19</v>
       </c>
       <c r="L33" t="n">
+        <v>47</v>
+      </c>
+      <c r="M33" t="n">
         <v>4</v>
-      </c>
-      <c r="M33" t="n">
-        <v>47</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -3528,8 +3631,10 @@
           <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
         </is>
       </c>
-      <c r="D34" t="b">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3565,10 +3670,10 @@
         <v>25</v>
       </c>
       <c r="L34" t="n">
+        <v>60</v>
+      </c>
+      <c r="M34" t="n">
         <v>5</v>
-      </c>
-      <c r="M34" t="n">
-        <v>60</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -3588,8 +3693,10 @@
           <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
         </is>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3625,10 +3732,10 @@
         <v>27</v>
       </c>
       <c r="L35" t="n">
+        <v>62</v>
+      </c>
+      <c r="M35" t="n">
         <v>5</v>
-      </c>
-      <c r="M35" t="n">
-        <v>62</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3648,8 +3755,10 @@
           <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
         </is>
       </c>
-      <c r="D36" t="b">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3685,10 +3794,10 @@
         <v>19</v>
       </c>
       <c r="L36" t="n">
+        <v>47</v>
+      </c>
+      <c r="M36" t="n">
         <v>4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>47</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -3708,8 +3817,10 @@
           <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
         </is>
       </c>
-      <c r="D37" t="b">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3745,10 +3856,10 @@
         <v>17</v>
       </c>
       <c r="L37" t="n">
+        <v>38</v>
+      </c>
+      <c r="M37" t="n">
         <v>3</v>
-      </c>
-      <c r="M37" t="n">
-        <v>38</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3768,8 +3879,10 @@
           <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
         </is>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3805,10 +3918,10 @@
         <v>30</v>
       </c>
       <c r="L38" t="n">
+        <v>65</v>
+      </c>
+      <c r="M38" t="n">
         <v>5</v>
-      </c>
-      <c r="M38" t="n">
-        <v>65</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3828,8 +3941,10 @@
           <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
         </is>
       </c>
-      <c r="D39" t="b">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3865,10 +3980,10 @@
         <v>23</v>
       </c>
       <c r="L39" t="n">
+        <v>51</v>
+      </c>
+      <c r="M39" t="n">
         <v>4</v>
-      </c>
-      <c r="M39" t="n">
-        <v>51</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3888,8 +4003,10 @@
           <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
         </is>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3925,10 +4042,10 @@
         <v>19</v>
       </c>
       <c r="L40" t="n">
+        <v>47</v>
+      </c>
+      <c r="M40" t="n">
         <v>4</v>
-      </c>
-      <c r="M40" t="n">
-        <v>47</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3948,8 +4065,10 @@
           <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
         </is>
       </c>
-      <c r="D41" t="b">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3985,10 +4104,10 @@
         <v>20</v>
       </c>
       <c r="L41" t="n">
+        <v>48</v>
+      </c>
+      <c r="M41" t="n">
         <v>4</v>
-      </c>
-      <c r="M41" t="n">
-        <v>48</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -4008,8 +4127,10 @@
           <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
         </is>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4045,10 +4166,10 @@
         <v>13</v>
       </c>
       <c r="L42" t="n">
+        <v>48</v>
+      </c>
+      <c r="M42" t="n">
         <v>5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>48</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -4068,8 +4189,10 @@
           <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
         </is>
       </c>
-      <c r="D43" t="b">
-        <v>0</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4105,10 +4228,10 @@
         <v>12</v>
       </c>
       <c r="L43" t="n">
+        <v>26</v>
+      </c>
+      <c r="M43" t="n">
         <v>2</v>
-      </c>
-      <c r="M43" t="n">
-        <v>26</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -4128,8 +4251,10 @@
           <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
         </is>
       </c>
-      <c r="D44" t="b">
-        <v>0</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4165,10 +4290,10 @@
         <v>20</v>
       </c>
       <c r="L44" t="n">
+        <v>76</v>
+      </c>
+      <c r="M44" t="n">
         <v>8</v>
-      </c>
-      <c r="M44" t="n">
-        <v>76</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -4188,8 +4313,10 @@
           <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
         </is>
       </c>
-      <c r="D45" t="b">
-        <v>0</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4225,10 +4352,10 @@
         <v>18</v>
       </c>
       <c r="L45" t="n">
+        <v>46</v>
+      </c>
+      <c r="M45" t="n">
         <v>4</v>
-      </c>
-      <c r="M45" t="n">
-        <v>46</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -4248,8 +4375,10 @@
           <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
         </is>
       </c>
-      <c r="D46" t="b">
-        <v>0</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4285,10 +4414,10 @@
         <v>19</v>
       </c>
       <c r="L46" t="n">
+        <v>61</v>
+      </c>
+      <c r="M46" t="n">
         <v>6</v>
-      </c>
-      <c r="M46" t="n">
-        <v>61</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -4308,8 +4437,10 @@
           <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
         </is>
       </c>
-      <c r="D47" t="b">
-        <v>0</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4345,10 +4476,10 @@
         <v>26</v>
       </c>
       <c r="L47" t="n">
+        <v>40</v>
+      </c>
+      <c r="M47" t="n">
         <v>2</v>
-      </c>
-      <c r="M47" t="n">
-        <v>40</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -4368,8 +4499,10 @@
           <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
         </is>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4405,10 +4538,10 @@
         <v>12</v>
       </c>
       <c r="L48" t="n">
+        <v>19</v>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>19</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -4447,7 +4580,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="J53" s="1" t="inlineStr">
@@ -4472,7 +4605,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Q53" s="1" t="inlineStr">
@@ -4520,17 +4653,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1721101666656</t>
+          <t>1721102082040</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="P54" s="1" t="n">
@@ -4538,17 +4671,17 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>1721102119136</t>
+          <t>1721101715356</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>08:52</t>
         </is>
       </c>
     </row>
@@ -4574,48 +4707,6 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>1721102651888</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>12:01</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>14</v>
-      </c>
-      <c r="P55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1721102268642</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="T55" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="56">
       <c r="B56" s="1" t="n">
@@ -4639,27 +4730,6 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>1721102627472</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>12:01</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>13:02</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="B57" s="1" t="n">
@@ -4707,403 +4777,472 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="B63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1721101989601</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1721102423348</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1721102462855</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D63" s="1" t="inlineStr">
+      <c r="D71" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E63" s="1" t="inlineStr">
+      <c r="E71" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F63" s="1" t="inlineStr">
+      <c r="F71" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="J63" s="1" t="inlineStr">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K63" s="1" t="inlineStr">
+      <c r="K71" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L63" s="1" t="inlineStr">
+      <c r="L71" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M63" s="1" t="inlineStr">
+      <c r="M71" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="Q63" s="1" t="inlineStr">
+      <c r="Q71" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="R63" s="1" t="inlineStr">
+      <c r="R71" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="S63" s="1" t="inlineStr">
+      <c r="S71" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="T63" s="1" t="inlineStr">
+      <c r="T71" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="1" t="n">
+    <row r="72">
+      <c r="B72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1721101715356</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1721102486645</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>07:50</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>08:52</t>
-        </is>
-      </c>
-      <c r="I64" s="1" t="n">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
+      <c r="I72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>1721101989601</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>08:50</t>
-        </is>
-      </c>
-      <c r="P64" s="1" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1721101666656</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="P72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>1721102522098</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>10:37</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
+    <row r="73">
+      <c r="I73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1721102651888</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="I74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1721102627472</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="C80" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D72" s="1" t="inlineStr">
+      <c r="D80" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E72" s="1" t="inlineStr">
+      <c r="E80" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F72" s="1" t="inlineStr">
+      <c r="F80" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J72" s="1" t="inlineStr">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="J80" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K72" s="1" t="inlineStr">
+      <c r="K80" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L72" s="1" t="inlineStr">
+      <c r="L80" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M72" s="1" t="inlineStr">
+      <c r="M80" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Q72" s="1" t="inlineStr">
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q80" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="R72" s="1" t="inlineStr">
+      <c r="R80" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="S72" s="1" t="inlineStr">
+      <c r="S80" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="T72" s="1" t="inlineStr">
+      <c r="T80" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="1" t="n">
+    <row r="81">
+      <c r="B81" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>1721102546874</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>10:38</t>
         </is>
       </c>
-      <c r="I73" s="1" t="n">
+      <c r="I81" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>1721102423348</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>08:37</t>
-        </is>
-      </c>
-      <c r="P73" s="1" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1721102119136</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="P81" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>1721102462855</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>08:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E81" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F81" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J81" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K81" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L81" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M81" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="Q81" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R81" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S81" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T81" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>1721102689216</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>17:09</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>1721102082040</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>07:35</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>08:16</t>
-        </is>
-      </c>
       <c r="I82" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1721102486645</t>
+          <t>1721102268642</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>08:17</t>
-        </is>
-      </c>
-      <c r="P82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>1721102689216</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>17:09</t>
-        </is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5191,21 +5330,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -5219,21 +5358,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
@@ -5247,21 +5386,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:01</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
@@ -5275,21 +5414,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10:01</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -5389,8 +5528,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Trikes</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Percentatge Trikes</t>
+        </is>
+      </c>
+      <c r="G16">
+        <f>G15/G13</f>
+        <v/>
+      </c>
+    </row>
     <row r="21"/>
     <row r="22"/>
     <row r="23"/>
@@ -5402,7 +5560,7 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Prioritari</t>
+          <t>Tipus Bici</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -5442,12 +5600,12 @@
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
+          <t>Temps Total Ruta</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
           <t>Num Entregues</t>
-        </is>
-      </c>
-      <c r="M24" s="1" t="inlineStr">
-        <is>
-          <t>Temps Total Ruta</t>
         </is>
       </c>
       <c r="N24" s="1" t="inlineStr">
@@ -5470,8 +5628,10 @@
           <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
         </is>
       </c>
-      <c r="D25" t="b">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -5507,10 +5667,10 @@
         <v>16</v>
       </c>
       <c r="L25" t="n">
+        <v>58</v>
+      </c>
+      <c r="M25" t="n">
         <v>6</v>
-      </c>
-      <c r="M25" t="n">
-        <v>58</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -5530,8 +5690,10 @@
           <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
         </is>
       </c>
-      <c r="D26" t="b">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -5567,10 +5729,10 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
+        <v>37</v>
+      </c>
+      <c r="M26" t="n">
         <v>3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>37</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -5590,8 +5752,10 @@
           <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
         </is>
       </c>
-      <c r="D27" t="b">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -5627,10 +5791,10 @@
         <v>16</v>
       </c>
       <c r="L27" t="n">
+        <v>37</v>
+      </c>
+      <c r="M27" t="n">
         <v>3</v>
-      </c>
-      <c r="M27" t="n">
-        <v>37</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -5650,8 +5814,10 @@
           <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
         </is>
       </c>
-      <c r="D28" t="b">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -5687,10 +5853,10 @@
         <v>17</v>
       </c>
       <c r="L28" t="n">
+        <v>31</v>
+      </c>
+      <c r="M28" t="n">
         <v>2</v>
-      </c>
-      <c r="M28" t="n">
-        <v>31</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -5710,8 +5876,10 @@
           <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
         </is>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -5747,10 +5915,10 @@
         <v>15</v>
       </c>
       <c r="L29" t="n">
+        <v>50</v>
+      </c>
+      <c r="M29" t="n">
         <v>5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>50</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -5770,8 +5938,10 @@
           <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
         </is>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -5807,10 +5977,10 @@
         <v>31</v>
       </c>
       <c r="L30" t="n">
+        <v>66</v>
+      </c>
+      <c r="M30" t="n">
         <v>5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>66</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -5830,8 +6000,10 @@
           <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
         </is>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -5867,10 +6039,10 @@
         <v>25</v>
       </c>
       <c r="L31" t="n">
+        <v>67</v>
+      </c>
+      <c r="M31" t="n">
         <v>6</v>
-      </c>
-      <c r="M31" t="n">
-        <v>67</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -5890,8 +6062,10 @@
           <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
         </is>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -5927,10 +6101,10 @@
         <v>14</v>
       </c>
       <c r="L32" t="n">
+        <v>35</v>
+      </c>
+      <c r="M32" t="n">
         <v>3</v>
-      </c>
-      <c r="M32" t="n">
-        <v>35</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -5950,8 +6124,10 @@
           <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
         </is>
       </c>
-      <c r="D33" t="b">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -5987,10 +6163,10 @@
         <v>19</v>
       </c>
       <c r="L33" t="n">
+        <v>54</v>
+      </c>
+      <c r="M33" t="n">
         <v>5</v>
-      </c>
-      <c r="M33" t="n">
-        <v>54</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -6010,8 +6186,10 @@
           <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
         </is>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6047,10 +6225,10 @@
         <v>21</v>
       </c>
       <c r="L34" t="n">
+        <v>63</v>
+      </c>
+      <c r="M34" t="n">
         <v>6</v>
-      </c>
-      <c r="M34" t="n">
-        <v>63</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -6070,8 +6248,10 @@
           <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
         </is>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6107,10 +6287,10 @@
         <v>19</v>
       </c>
       <c r="L35" t="n">
+        <v>54</v>
+      </c>
+      <c r="M35" t="n">
         <v>5</v>
-      </c>
-      <c r="M35" t="n">
-        <v>54</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -6130,8 +6310,10 @@
           <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
-      <c r="D36" t="b">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6167,10 +6349,10 @@
         <v>84</v>
       </c>
       <c r="L36" t="n">
+        <v>119</v>
+      </c>
+      <c r="M36" t="n">
         <v>5</v>
-      </c>
-      <c r="M36" t="n">
-        <v>119</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -6190,8 +6372,10 @@
           <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
         </is>
       </c>
-      <c r="D37" t="b">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6227,10 +6411,10 @@
         <v>19</v>
       </c>
       <c r="L37" t="n">
+        <v>40</v>
+      </c>
+      <c r="M37" t="n">
         <v>3</v>
-      </c>
-      <c r="M37" t="n">
-        <v>40</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -6250,8 +6434,10 @@
           <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
         </is>
       </c>
-      <c r="D38" t="b">
-        <v>0</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6287,10 +6473,10 @@
         <v>23</v>
       </c>
       <c r="L38" t="n">
+        <v>51</v>
+      </c>
+      <c r="M38" t="n">
         <v>4</v>
-      </c>
-      <c r="M38" t="n">
-        <v>51</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -6310,8 +6496,10 @@
           <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
         </is>
       </c>
-      <c r="D39" t="b">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -6347,10 +6535,10 @@
         <v>11</v>
       </c>
       <c r="L39" t="n">
+        <v>32</v>
+      </c>
+      <c r="M39" t="n">
         <v>3</v>
-      </c>
-      <c r="M39" t="n">
-        <v>32</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -6370,8 +6558,10 @@
           <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
         </is>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -6407,10 +6597,10 @@
         <v>20</v>
       </c>
       <c r="L40" t="n">
+        <v>48</v>
+      </c>
+      <c r="M40" t="n">
         <v>4</v>
-      </c>
-      <c r="M40" t="n">
-        <v>48</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -6430,8 +6620,10 @@
           <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
-      <c r="D41" t="b">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -6467,10 +6659,10 @@
         <v>68</v>
       </c>
       <c r="L41" t="n">
+        <v>89</v>
+      </c>
+      <c r="M41" t="n">
         <v>3</v>
-      </c>
-      <c r="M41" t="n">
-        <v>89</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -6490,8 +6682,10 @@
           <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
         </is>
       </c>
-      <c r="D42" t="b">
-        <v>0</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6527,10 +6721,10 @@
         <v>88</v>
       </c>
       <c r="L42" t="n">
+        <v>123</v>
+      </c>
+      <c r="M42" t="n">
         <v>5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>123</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -6550,8 +6744,10 @@
           <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
         </is>
       </c>
-      <c r="D43" t="b">
-        <v>0</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6587,10 +6783,10 @@
         <v>69</v>
       </c>
       <c r="L43" t="n">
+        <v>90</v>
+      </c>
+      <c r="M43" t="n">
         <v>3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>90</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -6629,32 +6825,32 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
           <t>C</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L48" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M48" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>E</t>
         </is>
       </c>
       <c r="Q48" s="1" t="inlineStr">
@@ -6702,17 +6898,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1721100247896</t>
+          <t>1721100497594</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="P49" s="1" t="n">
@@ -6720,17 +6916,17 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>1721100497594</t>
+          <t>1721100247896</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>09:35</t>
         </is>
       </c>
     </row>
@@ -6761,17 +6957,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1721100593141</t>
+          <t>1721101262949</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -6782,17 +6978,17 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>1721101262949</t>
+          <t>1721100593141</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="T50" t="n">
@@ -6826,17 +7022,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1721100447653</t>
+          <t>1721100178035</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -6847,17 +7043,17 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>1721100178035</t>
+          <t>1721100447653</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="T51" t="n">
@@ -6891,42 +7087,42 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1721101020078</t>
+          <t>1721101237043</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P52" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>1721101237043</t>
+          <t>1721101020078</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -6955,32 +7151,32 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>H</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F60" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>I</t>
         </is>
       </c>
       <c r="J60" s="1" t="inlineStr">
@@ -7035,17 +7231,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1721100704935</t>
+          <t>1721100922012</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="I61" s="1" t="n">
@@ -7053,17 +7249,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1721100922012</t>
+          <t>1721100704935</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="P61" s="1" t="n">
@@ -7086,25 +7282,25 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="1" t="n">
+      <c r="I62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>1721101195978</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>11:03</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>11:35</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="M62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7189,7 +7385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7337,6 +7533,16 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pes Trike</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -2905,6 +2905,26 @@
           <t>Hores Totals</t>
         </is>
       </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Treballador</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Sortida</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Hores</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="n">
@@ -2933,6 +2953,24 @@
       <c r="G3" t="n">
         <v>5.3</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
@@ -2961,6 +2999,24 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Fede Goss</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>8:15</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
@@ -2989,6 +3045,24 @@
       <c r="G5" t="n">
         <v>1.3</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Gianluca</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
@@ -3017,6 +3091,24 @@
       <c r="G6" t="n">
         <v>1.3</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Laila</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
@@ -3045,6 +3137,24 @@
       <c r="G7" t="n">
         <v>1.1</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Vladi</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>9:15</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
@@ -3073,6 +3183,24 @@
       <c r="G8" t="n">
         <v>1.1</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Erick</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>9:45</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="n">
@@ -3101,6 +3229,24 @@
       <c r="G9" t="n">
         <v>0.7</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="n">
@@ -3243,68 +3389,83 @@
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="G16">
+      <c r="F16">
         <f>SUM(G3:G14)</f>
         <v/>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="L16">
+        <f>SUM(L3:L15)</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Num treballadors</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="F17" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Num Rutes</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Total Paquets</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="F19" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Trikes</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="F20" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Percentatge Trikes</t>
-        </is>
-      </c>
-      <c r="G21">
+      <c r="G20">
         <f>G20/G18</f>
         <v/>
       </c>
     </row>
-    <row r="26"/>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4 Wheeler</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <f>G21/G18</f>
+        <v/>
+      </c>
+    </row>
     <row r="27"/>
     <row r="28"/>
     <row r="29">
@@ -5290,6 +5451,26 @@
           <t>Hores Totals</t>
         </is>
       </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Treballador</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Sortida</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Hores</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="n">
@@ -5318,6 +5499,24 @@
       <c r="G3" t="n">
         <v>6.8</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Jordi</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
@@ -5346,6 +5545,24 @@
       <c r="G4" t="n">
         <v>3.7</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
@@ -5374,6 +5591,24 @@
       <c r="G5" t="n">
         <v>4.3</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
@@ -5402,6 +5637,24 @@
       <c r="G6" t="n">
         <v>1.4</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Hans</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
@@ -5430,6 +5683,24 @@
       <c r="G7" t="n">
         <v>2</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Jaime</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
@@ -5458,6 +5729,24 @@
       <c r="G8" t="n">
         <v>1.2</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="n">
@@ -5488,68 +5777,83 @@
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="G11">
+      <c r="F11">
         <f>SUM(G3:G9)</f>
         <v/>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="L11">
+        <f>SUM(L3:L10)</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Num treballadors</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="F12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Num Rutes</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="F13" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Total Paquets</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="15">
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Trikes</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="F15" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Percentatge Trikes</t>
-        </is>
-      </c>
-      <c r="G16">
+      <c r="G15">
         <f>G15/G13</f>
         <v/>
       </c>
     </row>
-    <row r="21"/>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4 Wheeler</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <f>G16/G13</f>
+        <v/>
+      </c>
+    </row>
     <row r="22"/>
     <row r="23"/>
     <row r="24">

--- a/output.xlsx
+++ b/output.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P41"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,11 +505,11 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
+          <t>1721276845951 - 01 - NAPOLES - GOTIC - 07:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,36 +529,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7:40</t>
+          <t>7:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:53</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -567,11 +567,11 @@
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
+          <t>1721276937338 - 02- NAPOLES - DIAGONAL - 07:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,26 +601,26 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08:16</t>
+          <t>08:25</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -629,73 +629,73 @@
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1721277191775 - 03 - NAPOLES - RAMBLA - 08:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18/7/2024</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>08:58</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" t="n">
+        <v>55</v>
+      </c>
+      <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>08:17</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>08:27</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>13</v>
-      </c>
-      <c r="L5" t="n">
-        <v>27</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
+          <t>1721277539146 - 05 - NAPOLES - BARCELONETA - 08:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -715,49 +715,49 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>08:47</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
+          <t>1721277417685 - 04 - NAPOLES - URQUINAONA - 08:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -777,36 +777,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>08:57</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:07</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -815,21 +815,21 @@
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
+          <t>1721277677133 - 06 - NAPOLES - GOTIC - 09:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -839,49 +839,49 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L8" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>-10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
+          <t>1721277810551 - 07 - NAPOLES - RAMBLA - 09:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -901,59 +901,59 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>08:47</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L9" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>-10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
+          <t>1721278024671 - 09 - NAPOLES - P9 - 10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -963,59 +963,59 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>-21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
+          <t>1721277946934 - 08 - NAPOLES - GOTIC - 10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1025,49 +1025,49 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L11" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>K</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
+          <t>1721278181670 - 11 - NAPOLES - DIAGONAL - 10:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1087,49 +1087,49 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
+          <t>1721278122049 - 10 - NAPOLES - DIAGONAL - 10:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1149,36 +1149,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1187,11 +1187,11 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
+          <t>1721278441829 - 15 - NAPOLES - BORN - 12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1211,59 +1211,59 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
+          <t>1721278215919 - 12 - NAPOLES - URQUINAONA - 12:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1273,29 +1273,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -1306,26 +1306,26 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
+          <t>1721278279923 - 13 - NAPOLES - GOTIC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1335,49 +1335,49 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>-18</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
+          <t>1721278478995 - 16 - NAPOLES - BARCELONETA - 13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1397,59 +1397,59 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L17" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="M17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>-12</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
+          <t>1721278333859 - 14 - NAPOLES - GOTIC - 13:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1497,11 +1497,11 @@
     </row>
     <row r="19">
       <c r="B19" s="1" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
+          <t>1721275574447 - 01 - SANTS - URGELL - 07:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1511,121 +1511,121 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>7:30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L19" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
+          <t>1721275720267 - 02 - SANTS - ESTACIO - 08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>08:41</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
+          <t>1721275920979 - 03 - SANTS - UNIVERSITAT - 08:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1635,46 +1635,46 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16:50</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>09:09</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L21" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1683,21 +1683,21 @@
     </row>
     <row r="22">
       <c r="B22" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
+          <t>1721276014103 - 04 - SANTS - SANT ANTONI - 08:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1707,59 +1707,59 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7:40</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>08:28</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L22" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
+          <t>1721276079501 - 05 - SANTS - SANT ANTONI - 09:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1769,49 +1769,49 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>08:41</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L23" t="n">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>-10</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
+          <t>1721276203508 - 06 - SANTS - RAVAL - 09:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1831,59 +1831,59 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
+          <t>1721276291717 - 07 - SANTS - HOSTAFRANCS - 09:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1893,59 +1893,59 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>09:09</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L25" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>7</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="1" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
+          <t>1721279529569 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1955,36 +1955,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>8:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="L26" t="n">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -1993,21 +1993,21 @@
     </row>
     <row r="27">
       <c r="B27" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
+          <t>1721276412407 - 08 - SANTS - TARRADELLAS - 10:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2017,36 +2017,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L27" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2055,11 +2055,11 @@
     </row>
     <row r="28">
       <c r="B28" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
+          <t>1721276511065 - 10 - SANTS - ESTACIO - 11:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2079,59 +2079,59 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9:20</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L28" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>-2</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
+          <t>1721276468411 - 09 - SANTS - LES CORTS- 11:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2141,49 +2141,49 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L29" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>-5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
+          <t>1721276579710 - 11 - SANTS - URGELL - 12:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2203,49 +2203,49 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L30" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
+          <t>1721276651299 - 12 - SANTS - RAVAL - 12:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2265,59 +2265,59 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L31" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M31" t="n">
+        <v>7</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
         <v>6</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
+          <t>1721276691210 - 13 - SANTS - POBLE SEC - 12:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2327,49 +2327,49 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L32" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
+          <t>1721279562274 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2389,59 +2389,59 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="L33" t="n">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
+          <t>1721279592667 - S03 - SANTS - SYNLAB - 15:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="L34" t="n">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2484,16 +2484,16 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
+          <t>1721279622201 - S04 - SANTS - SYNLAB - 18:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2513,353 +2513,43 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="L35" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>11:03</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>11</v>
-      </c>
-      <c r="L36" t="n">
-        <v>32</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>11:50</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>12:38</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>20</v>
-      </c>
-      <c r="L37" t="n">
-        <v>48</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>12:35</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>14:04</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>14:14</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>68</v>
-      </c>
-      <c r="L38" t="n">
-        <v>89</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="O38" t="n">
         <v>-25</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>17:53</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>18:03</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>88</v>
-      </c>
-      <c r="L39" t="n">
-        <v>123</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>18:03</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>19:43</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>69</v>
-      </c>
-      <c r="L40" t="n">
-        <v>90</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41"/>
+    <row r="36"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2871,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T82"/>
+  <dimension ref="B2:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2937,25 +2627,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07:18</t>
+          <t>07:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Vladi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2965,11 +2655,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="4">
@@ -2983,7 +2673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2993,11 +2683,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -3006,16 +2696,16 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>8:15</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3029,21 +2719,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08:57</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -3080,12 +2770,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -3093,21 +2783,21 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Laila</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3121,39 +2811,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08:42</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Vladi</t>
+          <t>Cristian</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3167,30 +2857,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08:42</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Erick</t>
+          <t>Sebastián</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -3199,349 +2889,535 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="F10">
+        <f>SUM(G3:G8)</f>
+        <v/>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="L10">
+        <f>SUM(L3:L9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Num treballadors</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Num Rutes</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Total Paquets</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Trikes</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>F14/F12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4 Wheeler</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <f>F15/F12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Tipus Bici</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>Hub</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Ruta Plnif</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Ruta Real</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>Hora Fi Ruta</t>
+        </is>
+      </c>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>Inici Seguent Ruta</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>Temps Recorregut Ruta</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
+          <t>Temps Total Ruta</t>
+        </is>
+      </c>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>Num Entregues</t>
+        </is>
+      </c>
+      <c r="N23" s="1" t="inlineStr">
+        <is>
+          <t>Assignació</t>
+        </is>
+      </c>
+      <c r="O23" s="1" t="inlineStr">
+        <is>
+          <t>Plnif vs Real Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1721276845951 - 01 - NAPOLES - GOTIC - 07:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>18/7/2024</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>07:38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>08:22</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Sebastián</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>07:20</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>07:53</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>12</v>
+      </c>
+      <c r="L24" t="n">
+        <v>33</v>
+      </c>
+      <c r="M24" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="n">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1721276937338 - 02- NAPOLES - DIAGONAL - 07:45</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>18/7/2024</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>07:35</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>22</v>
+      </c>
+      <c r="L25" t="n">
+        <v>50</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1721277191775 - 03 - NAPOLES - RAMBLA - 08:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>18/7/2024</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>08:58</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>20</v>
+      </c>
+      <c r="L26" t="n">
+        <v>55</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1721277539146 - 05 - NAPOLES - BARCELONETA - 08:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>18/7/2024</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>09:33</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>09:43</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>23</v>
+      </c>
+      <c r="L27" t="n">
+        <v>58</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1721277417685 - 04 - NAPOLES - URQUINAONA - 08:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>18/7/2024</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>37</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1721277677133 - 06 - NAPOLES - GOTIC - 09:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>18/7/2024</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>20</v>
+      </c>
+      <c r="L29" t="n">
+        <v>55</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>09:38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>13:07</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>09:38</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10:42</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>09:38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10:08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>12:20</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>16:38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>17:14</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Total Hores</t>
-        </is>
-      </c>
-      <c r="F16">
-        <f>SUM(G3:G14)</f>
-        <v/>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Total Hores</t>
-        </is>
-      </c>
-      <c r="L16">
-        <f>SUM(L3:L15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Num treballadors</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Num Rutes</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Total Paquets</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Trikes</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <f>G20/G18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4 Wheeler</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <f>G21/G18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29">
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>Tipus Bici</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>Hub</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>Hora Inici Ruta Plnif</t>
-        </is>
-      </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>Hora Inici Ruta Real</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
-        <is>
-          <t>Hora Fi Ruta</t>
-        </is>
-      </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>Inici Seguent Ruta</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
-        <is>
-          <t>Temps Recorregut Ruta</t>
-        </is>
-      </c>
-      <c r="L29" s="1" t="inlineStr">
-        <is>
-          <t>Temps Total Ruta</t>
-        </is>
-      </c>
-      <c r="M29" s="1" t="inlineStr">
-        <is>
-          <t>Num Entregues</t>
-        </is>
-      </c>
-      <c r="N29" s="1" t="inlineStr">
-        <is>
-          <t>Assignació</t>
-        </is>
-      </c>
-      <c r="O29" s="1" t="inlineStr">
-        <is>
-          <t>Plnif vs Real Min</t>
-        </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
+          <t>1721277810551 - 07 - NAPOLES - RAMBLA - 09:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3551,7 +3427,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3561,59 +3437,59 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>7:40</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L30" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>-10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
+          <t>1721278024671 - 09 - NAPOLES - P9 - 10:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3623,59 +3499,59 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>08:16</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="K31" t="n">
+        <v>27</v>
+      </c>
+      <c r="L31" t="n">
+        <v>48</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
         <v>13</v>
-      </c>
-      <c r="L31" t="n">
-        <v>41</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
+          <t>1721277946934 - 08 - NAPOLES - GOTIC - 10:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3685,36 +3561,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>08:17</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L32" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -3723,11 +3599,11 @@
     </row>
     <row r="33">
       <c r="B33" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
+          <t>1721278181670 - 11 - NAPOLES - DIAGONAL - 10:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3737,7 +3613,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3747,49 +3623,49 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>08:47</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L33" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
+          <t>1721278122049 - 10 - NAPOLES - DIAGONAL - 10:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3799,7 +3675,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3809,36 +3685,36 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L34" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -3847,21 +3723,21 @@
     </row>
     <row r="35">
       <c r="B35" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
+          <t>1721278441829 - 15 - NAPOLES - BORN - 12:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3871,49 +3747,49 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L35" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
+          <t>1721278215919 - 12 - NAPOLES - URQUINAONA - 12:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3923,7 +3799,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3933,49 +3809,49 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>08:47</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L36" t="n">
         <v>47</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
+          <t>1721278279923 - 13 - NAPOLES - GOTIC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3985,7 +3861,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3995,59 +3871,59 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>-21</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
+          <t>1721278478995 - 16 - NAPOLES - BARCELONETA - 13:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4057,49 +3933,49 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>13:52</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L38" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>-3</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
+          <t>1721278333859 - 14 - NAPOLES - GOTIC - 13:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4109,7 +3985,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4119,604 +3995,357 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L39" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>10:37</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>10:47</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>19</v>
-      </c>
-      <c r="L40" t="n">
-        <v>47</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>10:38</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>10:48</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>20</v>
-      </c>
-      <c r="L41" t="n">
-        <v>48</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="O41" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>10:20</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>11:18</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>13</v>
-      </c>
-      <c r="L42" t="n">
-        <v>48</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>10:42</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>11:18</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>12</v>
-      </c>
-      <c r="L43" t="n">
-        <v>26</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>-18</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>11:18</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>12:34</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>12:44</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>20</v>
-      </c>
-      <c r="L44" t="n">
-        <v>76</v>
-      </c>
-      <c r="M44" t="n">
-        <v>8</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>-12</v>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q44" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R44" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S44" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T44" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
+          <t>1721276845951</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>11:51</t>
-        </is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>12:01</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>18</v>
-      </c>
-      <c r="L45" t="n">
-        <v>46</v>
-      </c>
-      <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>-25</v>
+          <t>1721276937338</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>07:35</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1721277417685</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>08:57</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
+          <t>1721277191775</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>12:01</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>13:02</t>
-        </is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>13:12</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>19</v>
-      </c>
-      <c r="L46" t="n">
-        <v>61</v>
+          <t>1721277539146</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>09:43</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>6</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
+          <t>1721277677133</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12:25</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>26</v>
-      </c>
-      <c r="L47" t="n">
-        <v>40</v>
+          <t>1721277810551</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>09:43</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="1" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
+          <t>1721278024671</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>17:09</t>
-        </is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>17:19</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>12</v>
-      </c>
-      <c r="L48" t="n">
-        <v>19</v>
+          <t>1721278181670</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>-10</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1721278441829</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1721278478995</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>12:41</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
@@ -4741,7 +4370,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J53" s="1" t="inlineStr">
@@ -4766,7 +4395,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q53" s="1" t="inlineStr">
@@ -4796,17 +4425,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1721101633540</t>
+          <t>1721277946934</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="I54" s="1" t="n">
@@ -4814,17 +4443,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1721102082040</t>
+          <t>1721278122049</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>08:16</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="P54" s="1" t="n">
@@ -4832,578 +4461,64 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>1721101715356</t>
+          <t>1721278279923</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>08:52</t>
+          <t>12:24</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="1" t="n">
+      <c r="I55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1721102182608</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>08:39</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>09:27</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1721278215919</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="1" t="n">
+      <c r="I56" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1721099914915</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>09:27</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>10:42</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="1" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1721278333859</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>3</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1721101949589</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>10:42</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>11:18</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1721102224478</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>11:18</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>12:34</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F62" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J62" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L62" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M62" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Q62" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R62" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S62" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T62" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1721101989601</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>08:50</t>
-        </is>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>1721102423348</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>08:37</t>
-        </is>
-      </c>
-      <c r="P63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>1721102462855</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>08:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F71" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="J71" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K71" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L71" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M71" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q71" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R71" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S71" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T71" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1721102486645</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>08:17</t>
-        </is>
-      </c>
-      <c r="I72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>1721101666656</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>10:51</t>
-        </is>
-      </c>
-      <c r="P72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>1721102522098</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>10:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="I73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>1721102651888</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>12:01</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="I74" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>1721102627472</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>12:01</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>13:02</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E80" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F80" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="J80" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K80" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L80" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M80" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="Q80" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R80" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S80" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T80" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>1721102546874</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>10:38</t>
-        </is>
-      </c>
-      <c r="I81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>1721102119136</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>10:20</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>11:18</t>
-        </is>
-      </c>
-      <c r="P81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>1721102689216</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>16:50</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="I82" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>1721102268642</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5417,7 +4532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T71"/>
+  <dimension ref="B2:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5483,25 +4598,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07:18</t>
+          <t>07:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Jordi</t>
+          <t>Zoe</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -5511,11 +4626,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5529,7 +4644,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -5539,29 +4654,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7:45</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5">
@@ -5575,39 +4690,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Alejandro</t>
+          <t>Laila</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5621,39 +4736,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10:01</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Hans</t>
+          <t>Nil</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>9:15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5667,7 +4782,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5677,11 +4792,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -5713,39 +4828,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -5759,20 +4874,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19:38</t>
+          <t>19:10</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Alan</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5813,7 +4946,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -5823,7 +4956,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -5833,10 +4966,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <f>G15/G13</f>
+        <f>F15/F13</f>
         <v/>
       </c>
     </row>
@@ -5847,10 +4980,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <f>G16/G13</f>
+        <f>F16/F13</f>
         <v/>
       </c>
     </row>
@@ -5929,7 +5062,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
+          <t>1721275574447 - 01 - SANTS - URGELL - 07:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5939,7 +5072,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5949,36 +5082,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>7:40</t>
+          <t>7:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08:28</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -5991,17 +5124,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
+          <t>1721275720267 - 02 - SANTS - ESTACIO - 08:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6021,26 +5154,26 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>08:41</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -6053,17 +5186,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
+          <t>1721275920979 - 03 - SANTS - UNIVERSITAT - 08:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6073,40 +5206,40 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>08:59</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:09</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L27" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="28">
@@ -6115,7 +5248,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
+          <t>1721276014103 - 04 - SANTS - SANT ANTONI - 08:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6125,7 +5258,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6140,35 +5273,35 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L28" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>7</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="29">
@@ -6177,7 +5310,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
+          <t>1721276079501 - 05 - SANTS - SANT ANTONI - 09:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6187,7 +5320,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6197,32 +5330,32 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>8:45</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>08:41</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L29" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -6230,7 +5363,7 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>-10</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="30">
@@ -6239,17 +5372,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
+          <t>1721276203508 - 06 - SANTS - RAVAL - 09:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6259,40 +5392,40 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L30" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -6301,7 +5434,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
+          <t>1721276291717 - 07 - SANTS - HOSTAFRANCS - 09:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6311,7 +5444,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -6321,40 +5454,40 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9:20</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>09:09</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L31" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M31" t="n">
         <v>6</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>-2</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="32">
@@ -6363,7 +5496,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
+          <t>1721279529569 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6373,7 +5506,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6383,40 +5516,40 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="L32" t="n">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="33">
@@ -6425,7 +5558,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
+          <t>1721276412407 - 08 - SANTS - TARRADELLAS - 10:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6435,7 +5568,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6445,40 +5578,40 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L33" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="34">
@@ -6487,7 +5620,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
+          <t>1721276511065 - 10 - SANTS - ESTACIO - 11:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6497,7 +5630,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6507,40 +5640,40 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L34" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="35">
@@ -6549,7 +5682,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
+          <t>1721276468411 - 09 - SANTS - LES CORTS- 11:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6559,7 +5692,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6569,40 +5702,40 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L35" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="36">
@@ -6611,17 +5744,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
+          <t>1721276579710 - 11 - SANTS - URGELL - 12:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6631,40 +5764,40 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="L36" t="n">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -6673,7 +5806,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
+          <t>1721276651299 - 12 - SANTS - RAVAL - 12:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6683,7 +5816,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6693,40 +5826,40 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L37" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -6735,7 +5868,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
+          <t>1721276691210 - 13 - SANTS - POBLE SEC - 12:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6745,7 +5878,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6755,40 +5888,40 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L38" t="n">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>-21</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="39">
@@ -6797,17 +5930,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
+          <t>1721279562274 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6817,40 +5950,40 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="L39" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="40">
@@ -6859,7 +5992,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
+          <t>1721279592667 - S03 - SANTS - SYNLAB - 15:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6869,7 +6002,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6879,36 +6012,36 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="L40" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -6921,7 +6054,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
+          <t>1721279622201 - S04 - SANTS - SYNLAB - 18:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6931,7 +6064,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>18/7/2024</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6941,741 +6074,575 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>14:04</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L41" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O41" t="n">
         <v>-25</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>17:53</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>18:03</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>88</v>
-      </c>
-      <c r="L42" t="n">
-        <v>123</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>18:03</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>19:43</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>69</v>
-      </c>
-      <c r="L43" t="n">
-        <v>90</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>3</v>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="Q46" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R46" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S46" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T46" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1721275574447</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>07:20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1721275720267</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>08:41</t>
+        </is>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1721275920979</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>09:09</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L48" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M48" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="Q48" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R48" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S48" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T48" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1721276014103</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1721276079501</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>08:41</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1721276291717</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>09:09</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1721276203508</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
         <v>0</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1721100355845</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>08:38</t>
-        </is>
-      </c>
       <c r="I49" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1721100497594</t>
+          <t>1721276468411</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>08:37</t>
-        </is>
-      </c>
-      <c r="P49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>1721100247896</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>08:35</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>09:35</t>
-        </is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1721100630101</t>
+          <t>1721276511065</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1721101262949</t>
+          <t>1721276651299</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="P50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>1721100593141</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>09:35</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>10:39</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="B51" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1721101127690</t>
+          <t>1721276579710</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>1721100178035</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>09:18</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="J56" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K56" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L56" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M56" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Q56" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R56" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S56" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T56" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1721100447653</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>10:39</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>11:40</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1721279529569</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="I57" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1721101394043</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>10:10</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>12:19</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1721276412407</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="P57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>1721101237043</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>11:15</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1721279562274</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1721276691210</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P52" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>1721101020078</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>11:50</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>12:38</t>
-        </is>
-      </c>
-      <c r="T52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1721101422578</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>12:35</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:04</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1721279592667</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1721279622201</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F60" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="J60" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K60" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L60" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M60" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Q60" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R60" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S60" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T60" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1721100922012</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>08:50</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>09:56</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>1721100704935</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>11:03</t>
-        </is>
-      </c>
-      <c r="P61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>1721101164491</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>10:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="I62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>1721101195978</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>11:03</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F69" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1721101452774</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>18:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1721101486211</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>18:03</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P36"/>
+  <dimension ref="B2:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,11 +505,11 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1721276845951 - 01 - NAPOLES - GOTIC - 07:30</t>
+          <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,36 +529,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7:30</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>07:53</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -567,11 +567,11 @@
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1721276937338 - 02- NAPOLES - DIAGONAL - 07:45</t>
+          <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,26 +601,26 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08:25</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -629,21 +629,21 @@
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1721277191775 - 03 - NAPOLES - RAMBLA - 08:00</t>
+          <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -658,44 +658,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08:58</t>
+          <t>08:17</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1721277539146 - 05 - NAPOLES - BARCELONETA - 08:30</t>
+          <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -715,49 +715,49 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>08:47</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L6" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1721277417685 - 04 - NAPOLES - URQUINAONA - 08:30</t>
+          <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -777,36 +777,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08:57</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -815,21 +815,21 @@
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1721277677133 - 06 - NAPOLES - GOTIC - 09:00</t>
+          <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -839,49 +839,49 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L8" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1721277810551 - 07 - NAPOLES - RAMBLA - 09:30</t>
+          <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -901,59 +901,59 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:47</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L9" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>13</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1721278024671 - 09 - NAPOLES - P9 - 10:00</t>
+          <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -963,59 +963,59 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>13</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1721277946934 - 08 - NAPOLES - GOTIC - 10:00</t>
+          <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1025,49 +1025,49 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L11" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1721278181670 - 11 - NAPOLES - DIAGONAL - 10:30</t>
+          <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1087,59 +1087,59 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1721278122049 - 10 - NAPOLES - DIAGONAL - 10:30</t>
+          <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1149,36 +1149,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1721278441829 - 15 - NAPOLES - BORN - 12:00</t>
+          <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1211,59 +1211,59 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>N</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1721278215919 - 12 - NAPOLES - URQUINAONA - 12:00</t>
+          <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1273,29 +1273,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -1306,26 +1306,26 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1721278279923 - 13 - NAPOLES - GOTIC</t>
+          <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1335,49 +1335,49 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>-10</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1721278478995 - 16 - NAPOLES - BARCELONETA - 13:00</t>
+          <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1397,59 +1397,59 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L17" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>-19</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1721278333859 - 14 - NAPOLES - GOTIC - 13:00</t>
+          <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O18" t="n">
@@ -1497,11 +1497,11 @@
     </row>
     <row r="19">
       <c r="B19" s="1" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1721275574447 - 01 - SANTS - URGELL - 07:30</t>
+          <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1511,121 +1511,121 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>13:12</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L19" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1721275720267 - 02 - SANTS - ESTACIO - 08:00</t>
+          <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>08:41</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1721275920979 - 03 - SANTS - UNIVERSITAT - 08:00</t>
+          <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1635,46 +1635,46 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>17:19</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>S</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -1683,21 +1683,21 @@
     </row>
     <row r="22">
       <c r="B22" s="1" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1721276014103 - 04 - SANTS - SANT ANTONI - 08:30</t>
+          <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1707,59 +1707,59 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L22" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1721276079501 - 05 - SANTS - SANT ANTONI - 09:30</t>
+          <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1769,49 +1769,49 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08:41</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="M23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>-19</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1721276203508 - 06 - SANTS - RAVAL - 09:30</t>
+          <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1831,59 +1831,59 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L24" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1721276291717 - 07 - SANTS - HOSTAFRANCS - 09:30</t>
+          <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1893,59 +1893,59 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>-21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="1" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1721279529569 - S01 - SANTS - SYNLAB - 10:00</t>
+          <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1955,36 +1955,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>8:45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="L26" t="n">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -1993,21 +1993,21 @@
     </row>
     <row r="27">
       <c r="B27" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1721276412407 - 08 - SANTS - TARRADELLAS - 10:00</t>
+          <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2017,36 +2017,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L27" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -2055,11 +2055,11 @@
     </row>
     <row r="28">
       <c r="B28" s="1" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1721276511065 - 10 - SANTS - ESTACIO - 11:00</t>
+          <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2079,59 +2079,59 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>9:20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L28" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>-20</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1721276468411 - 09 - SANTS - LES CORTS- 11:00</t>
+          <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2141,49 +2141,49 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L29" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="M29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>-25</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1721276579710 - 11 - SANTS - URGELL - 12:00</t>
+          <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2203,111 +2203,111 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L30" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="M30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>21</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1721276651299 - 12 - SANTS - RAVAL - 12:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>18/7/2024</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>12:06</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>13:20</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>25</v>
-      </c>
       <c r="L31" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>H</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>6</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1721276691210 - 13 - SANTS - POBLE SEC - 12:30</t>
+          <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2327,49 +2327,49 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L32" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="M32" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>L</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1721279562274 - S02 - SANTS - SYNLAB - 13:00</t>
+          <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2389,59 +2389,59 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="L33" t="n">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1721279592667 - S03 - SANTS - SYNLAB - 15:30</t>
+          <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="L34" t="n">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2484,16 +2484,16 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1721279622201 - S04 - SANTS - SYNLAB - 18:00</t>
+          <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2513,43 +2513,353 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>23</v>
+      </c>
+      <c r="L35" t="n">
+        <v>51</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>11</v>
+      </c>
+      <c r="L36" t="n">
+        <v>32</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>20</v>
+      </c>
+      <c r="L37" t="n">
+        <v>48</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>68</v>
+      </c>
+      <c r="L38" t="n">
+        <v>89</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>88</v>
+      </c>
+      <c r="L39" t="n">
+        <v>123</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>69</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L40" t="n">
         <v>90</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M40" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="36"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2561,7 +2871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T56"/>
+  <dimension ref="B2:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,21 +2937,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07:08</t>
+          <t>07:18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2650,16 +2960,16 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7:45</t>
+          <t>7:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="4">
@@ -2673,7 +2983,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2683,29 +2993,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>08:21</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Fede Goss</t>
+          <t>Rebeca</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>7:30</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2719,39 +3029,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>08:57</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Gianluca</t>
+          <t>Fede Goss</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>7:45</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
@@ -2770,12 +3080,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -2783,21 +3093,21 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Cristian</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>7:45</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2811,39 +3121,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>08:42</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Cristian</t>
+          <t>Jordi</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2857,567 +3167,363 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>08:42</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>08:22</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13:07</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>11:38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>12:29</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Sebastián</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17:14</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="F10">
-        <f>SUM(G3:G8)</f>
+      <c r="F16">
+        <f>SUM(G3:G14)</f>
         <v/>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="L10">
-        <f>SUM(L3:L9)</f>
+      <c r="L16">
+        <f>SUM(L3:L15)</f>
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" t="inlineStr">
+    <row r="17">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Num treballadors</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="inlineStr">
+      <c r="F17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Num Rutes</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="inlineStr">
+      <c r="F18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Total Paquets</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="inlineStr">
+      <c r="F19" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Trikes</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <f>F14/F12</f>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f>F20/F18</f>
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="E15" t="inlineStr">
+    <row r="21">
+      <c r="E21" t="inlineStr">
         <is>
           <t>4 Wheeler</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <f>F15/F12</f>
+      <c r="F21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <f>F21/F18</f>
         <v/>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23">
-      <c r="C23" s="1" t="inlineStr">
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D29" s="1" t="inlineStr">
         <is>
           <t>Tipus Bici</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>Hub</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Plnif</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
+      <c r="H29" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Real</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I29" s="1" t="inlineStr">
         <is>
           <t>Hora Fi Ruta</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J29" s="1" t="inlineStr">
         <is>
           <t>Inici Seguent Ruta</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K29" s="1" t="inlineStr">
         <is>
           <t>Temps Recorregut Ruta</t>
         </is>
       </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="L29" s="1" t="inlineStr">
         <is>
           <t>Temps Total Ruta</t>
         </is>
       </c>
-      <c r="M23" s="1" t="inlineStr">
+      <c r="M29" s="1" t="inlineStr">
         <is>
           <t>Num Entregues</t>
         </is>
       </c>
-      <c r="N23" s="1" t="inlineStr">
+      <c r="N29" s="1" t="inlineStr">
         <is>
           <t>Assignació</t>
         </is>
       </c>
-      <c r="O23" s="1" t="inlineStr">
+      <c r="O29" s="1" t="inlineStr">
         <is>
           <t>Plnif vs Real Min</t>
         </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1721276845951 - 01 - NAPOLES - GOTIC - 07:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>18/7/2024</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>7:30</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>07:20</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>07:53</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>08:03</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>12</v>
-      </c>
-      <c r="L24" t="n">
-        <v>33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1721276937338 - 02- NAPOLES - DIAGONAL - 07:45</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>18/7/2024</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>07:35</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>08:25</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>08:35</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>22</v>
-      </c>
-      <c r="L25" t="n">
-        <v>50</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1721277191775 - 03 - NAPOLES - RAMBLA - 08:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>18/7/2024</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>08:03</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>08:58</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>09:08</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>20</v>
-      </c>
-      <c r="L26" t="n">
-        <v>55</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1721277539146 - 05 - NAPOLES - BARCELONETA - 08:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>18/7/2024</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>08:35</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>09:33</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>09:43</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>23</v>
-      </c>
-      <c r="L27" t="n">
-        <v>58</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1721277417685 - 04 - NAPOLES - URQUINAONA - 08:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>18/7/2024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>08:57</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>09:07</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>9</v>
-      </c>
-      <c r="L28" t="n">
-        <v>37</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1721277677133 - 06 - NAPOLES - GOTIC - 09:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4 wheels</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>18/7/2024</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>09:08</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>10:03</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>10:13</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>20</v>
-      </c>
-      <c r="L29" t="n">
-        <v>55</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1721277810551 - 07 - NAPOLES - RAMBLA - 09:30</t>
+          <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3427,7 +3533,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3437,59 +3543,59 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L30" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>13</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1721278024671 - 09 - NAPOLES - P9 - 10:00</t>
+          <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3499,59 +3605,59 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>7:45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>13</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1721277946934 - 08 - NAPOLES - GOTIC - 10:00</t>
+          <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3561,36 +3667,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>08:17</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>R</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -3599,11 +3705,11 @@
     </row>
     <row r="33">
       <c r="B33" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1721278181670 - 11 - NAPOLES - DIAGONAL - 10:30</t>
+          <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3613,7 +3719,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3623,49 +3729,49 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>08:47</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1721278122049 - 10 - NAPOLES - DIAGONAL - 10:30</t>
+          <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3675,7 +3781,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3685,36 +3791,36 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L34" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -3723,21 +3829,21 @@
     </row>
     <row r="35">
       <c r="B35" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1721278441829 - 15 - NAPOLES - BORN - 12:00</t>
+          <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3747,49 +3853,49 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>08:52</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L35" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>J</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1721278215919 - 12 - NAPOLES - URQUINAONA - 12:00</t>
+          <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3799,7 +3905,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3809,49 +3915,49 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>08:47</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L36" t="n">
         <v>47</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="1" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1721278279923 - 13 - NAPOLES - GOTIC</t>
+          <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3861,7 +3967,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3871,59 +3977,59 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L37" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>-10</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1721278478995 - 16 - NAPOLES - BARCELONETA - 13:00</t>
+          <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3933,49 +4039,49 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>13:52</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L38" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>-19</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1721278333859 - 14 - NAPOLES - GOTIC - 13:00</t>
+          <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3985,7 +4091,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3995,357 +4101,604 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L39" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>10:47</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>47</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>10:48</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>20</v>
+      </c>
+      <c r="L41" t="n">
+        <v>48</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>13</v>
+      </c>
+      <c r="L42" t="n">
+        <v>48</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="O39" t="n">
-        <v>-25</v>
+      <c r="O42" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>12</v>
+      </c>
+      <c r="L43" t="n">
+        <v>26</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
+      <c r="B44" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>11:18</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L44" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M44" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Q44" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R44" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S44" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T44" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>20</v>
+      </c>
+      <c r="L44" t="n">
+        <v>76</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1721276845951</t>
+          <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>08:03</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>0</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>11:51</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1721276937338</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>07:35</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>08:35</t>
-        </is>
-      </c>
-      <c r="P45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>1721277417685</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>08:57</t>
-        </is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>18</v>
+      </c>
+      <c r="L45" t="n">
+        <v>46</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>19</v>
+      </c>
+      <c r="L46" t="n">
+        <v>61</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
         <v>1</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1721277191775</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>08:03</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>09:08</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>1721277539146</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>08:35</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>09:43</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>26</v>
+      </c>
+      <c r="L47" t="n">
+        <v>40</v>
+      </c>
+      <c r="M47" t="n">
         <v>2</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1721277677133</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>09:08</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>10:13</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>1721277810551</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>09:43</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1721278024671</t>
+          <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11:01</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>3</v>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1721278181670</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>11:29</t>
-        </is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" t="n">
+        <v>19</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="I49" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>1721278441829</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>11:35</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="I50" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>1721278478995</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>13:42</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
@@ -4370,7 +4723,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="J53" s="1" t="inlineStr">
@@ -4395,7 +4748,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Q53" s="1" t="inlineStr">
@@ -4425,17 +4778,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1721277946934</t>
+          <t>1721101633540</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="I54" s="1" t="n">
@@ -4443,17 +4796,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1721278122049</t>
+          <t>1721102082040</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="P54" s="1" t="n">
@@ -4461,64 +4814,578 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>1721278279923</t>
+          <t>1721101715356</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>07:50</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>08:52</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="I55" s="1" t="n">
+      <c r="B55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>1721278215919</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1721102182608</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1721099914915</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1721101949589</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1721102224478</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1721101989601</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1721102423348</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1721102462855</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K71" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L71" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M71" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q71" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R71" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S71" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T71" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1721102486645</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1721101666656</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>1721102522098</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="I73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1721102651888</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="I74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1721102627472</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="J80" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K80" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L80" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M80" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q80" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R80" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S80" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T80" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1721102546874</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1721102119136</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>1721102689216</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="I82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1721102268642</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>11:35</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>12:32</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="I56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>1721278333859</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>12:35</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>13:21</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>3</v>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4532,7 +5399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:T67"/>
+  <dimension ref="B2:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4598,25 +5465,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07:08</t>
+          <t>07:18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4626,11 +5493,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4644,7 +5511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4654,29 +5521,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Alejandro</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>7:30</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
@@ -4690,39 +5557,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Laila</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>7:45</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4736,39 +5603,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>10:01</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Nil</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9:15</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7">
@@ -4782,7 +5649,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4792,11 +5659,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4805,12 +5672,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -4828,39 +5695,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Hans</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -4874,38 +5741,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15:08</t>
+          <t>15:38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:38</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Alan</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4946,7 +5795,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -4956,7 +5805,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -4966,7 +5815,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <f>F15/F13</f>
@@ -4980,7 +5829,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <f>F16/F13</f>
@@ -5062,7 +5911,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1721275574447 - 01 - SANTS - URGELL - 07:30</t>
+          <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5072,7 +5921,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5082,36 +5931,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>7:30</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>07:20</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -5124,17 +5973,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1721275720267 - 02 - SANTS - ESTACIO - 08:00</t>
+          <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5154,26 +6003,26 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08:31</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>08:41</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O26" t="n">
@@ -5186,17 +6035,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1721275920979 - 03 - SANTS - UNIVERSITAT - 08:00</t>
+          <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5206,40 +6055,40 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>8:00</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L27" t="n">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>-10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -5248,7 +6097,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1721276014103 - 04 - SANTS - SANT ANTONI - 08:30</t>
+          <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5258,7 +6107,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5273,35 +6122,35 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L28" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>-15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -5310,7 +6159,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1721276079501 - 05 - SANTS - SANT ANTONI - 09:30</t>
+          <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5320,7 +6169,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5330,32 +6179,32 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>8:45</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08:41</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -5363,7 +6212,7 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>-19</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="30">
@@ -5372,17 +6221,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1721276203508 - 06 - SANTS - RAVAL - 09:30</t>
+          <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5392,40 +6241,40 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L30" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="31">
@@ -5434,7 +6283,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1721276291717 - 07 - SANTS - HOSTAFRANCS - 09:30</t>
+          <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5444,7 +6293,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5454,40 +6303,40 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>9:20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L31" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M31" t="n">
         <v>6</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>-21</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32">
@@ -5496,7 +6345,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1721279529569 - S01 - SANTS - SYNLAB - 10:00</t>
+          <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5506,7 +6355,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5516,40 +6365,40 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>11:49</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="L32" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="33">
@@ -5558,7 +6407,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1721276412407 - 08 - SANTS - TARRADELLAS - 10:00</t>
+          <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5568,7 +6417,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5578,40 +6427,40 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="M33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -5620,7 +6469,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1721276511065 - 10 - SANTS - ESTACIO - 11:00</t>
+          <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5630,7 +6479,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5640,40 +6489,40 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L34" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>H</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="35">
@@ -5682,17 +6531,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1721276468411 - 09 - SANTS - LES CORTS- 11:00</t>
+          <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5702,40 +6551,40 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L35" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="M35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="36">
@@ -5744,17 +6593,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1721276579710 - 11 - SANTS - URGELL - 12:00</t>
+          <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>Trike</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5764,40 +6613,40 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="L36" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="M36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -5806,7 +6655,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1721276651299 - 12 - SANTS - RAVAL - 12:00</t>
+          <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5816,7 +6665,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5826,40 +6675,40 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L37" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="M37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -5868,7 +6717,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1721276691210 - 13 - SANTS - POBLE SEC - 12:30</t>
+          <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5878,7 +6727,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5888,40 +6737,40 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L38" t="n">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="M38" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>-25</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="39">
@@ -5930,17 +6779,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1721279562274 - S02 - SANTS - SYNLAB - 13:00</t>
+          <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>4 wheels</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -5950,40 +6799,40 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>14:19</t>
+          <t>11:35</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -5992,7 +6841,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1721279592667 - S03 - SANTS - SYNLAB - 15:30</t>
+          <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6002,7 +6851,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6012,36 +6861,36 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>17:19</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -6054,7 +6903,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1721279622201 - S04 - SANTS - SYNLAB - 18:00</t>
+          <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6064,7 +6913,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>18/7/2024</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6074,575 +6923,741 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>14:04</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L41" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O41" t="n">
         <v>-25</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
+    <row r="42">
+      <c r="B42" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>88</v>
+      </c>
+      <c r="L42" t="n">
+        <v>123</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>69</v>
+      </c>
+      <c r="L43" t="n">
+        <v>90</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="D48" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E48" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F48" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="Q48" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="R48" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L46" s="1" t="inlineStr">
+      <c r="S48" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M46" s="1" t="inlineStr">
+      <c r="T48" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Q46" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R46" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S46" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T46" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1721275574447</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>07:20</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>08:15</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>1721275720267</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>08:41</t>
-        </is>
-      </c>
-      <c r="P47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>1721275920979</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>09:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1721276014103</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>08:15</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>09:35</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>1721276079501</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>08:41</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>1721276291717</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>09:09</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>10:18</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1721276203508</t>
+          <t>1721100355845</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1721100497594</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1721100247896</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
           <t>09:35</t>
         </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>10:40</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>1721276468411</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>12:06</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1721276511065</t>
+          <t>1721100630101</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>08:38</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1721276651299</t>
+          <t>1721101262949</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>08:37</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>09:18</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
+      <c r="P50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1721100593141</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1721276579710</t>
+          <t>1721101127690</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="I51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1721100178035</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1721100447653</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1721101394043</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1721101237043</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1721101020078</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1721101422578</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="D60" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E60" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F60" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K60" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L56" s="1" t="inlineStr">
+      <c r="L60" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M56" s="1" t="inlineStr">
+      <c r="M60" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="Q56" s="1" t="inlineStr">
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q60" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="R56" s="1" t="inlineStr">
+      <c r="R60" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="S56" s="1" t="inlineStr">
+      <c r="S60" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="T56" s="1" t="inlineStr">
+      <c r="T60" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="1" t="n">
+    <row r="61">
+      <c r="B61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1721279529569</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1721100922012</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1721100704935</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="P61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>1721276412407</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1721101164491</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>11:04</t>
-        </is>
-      </c>
-      <c r="P57" s="1" t="n">
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="I62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1721101195978</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>0</v>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1721279562274</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>12:50</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>14:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="1" t="n">
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1721101452774</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1721276691210</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>12:05</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>13:32</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="F65" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="1" t="n">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1721101486211</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>0</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1721279592667</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>17:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1721279622201</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>17:35</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +7826,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Taula General" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Napoles" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sants" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Hipotesi" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +30,9 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R40"/>
+  <dimension ref="B2:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,75 +448,60 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Prioritari</t>
+          <t>Tipus Bici</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Tipus Bici</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Hub</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>Hub</t>
+          <t>Hora Inici Ruta Plnif</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>Hora Inici Ruta Plnif</t>
+          <t>Hora Inici Ruta Real</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Hora Inici Ruta Real</t>
+          <t>Hora Fi Ruta</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>Hora Fi Ruta</t>
+          <t>Inici Seguent Ruta</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>Inici Seguent Ruta</t>
+          <t>Temps Recorregut Ruta</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>Temps Recorregut Ruta</t>
+          <t>Temps Total Ruta</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>Temps Total Ruta</t>
+          <t>Num Entregues</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Num Entregues</t>
+          <t>Assignació</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>Assignació</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>Assignacio</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>Plnif vs Real Min</t>
         </is>
@@ -525,50 +516,57 @@
           <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
         </is>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7:40</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>08:39</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>24</v>
+      </c>
       <c r="L3" t="n">
-        <v>24</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>460</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
@@ -580,50 +578,57 @@
           <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
         </is>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>7:45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>07:35</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>08:16</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>08:26</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>13</v>
+      </c>
       <c r="L4" t="n">
-        <v>13</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>41</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>465</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="5">
@@ -635,50 +640,57 @@
           <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>08:27</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>13</v>
+      </c>
       <c r="L5" t="n">
-        <v>13</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>27</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>480</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="6">
@@ -690,50 +702,57 @@
           <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>08:47</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
       <c r="L6" t="n">
-        <v>19</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>47</v>
+      </c>
+      <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>480</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="7">
@@ -745,50 +764,57 @@
           <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
         </is>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>25</v>
+      </c>
       <c r="L7" t="n">
-        <v>25</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>60</v>
+      </c>
+      <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>480</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="8">
@@ -800,50 +826,57 @@
           <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
         </is>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>09:02</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>27</v>
+      </c>
       <c r="L8" t="n">
-        <v>27</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>62</v>
+      </c>
+      <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>480</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="9">
@@ -855,50 +888,57 @@
           <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
         </is>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>08:47</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>19</v>
+      </c>
       <c r="L9" t="n">
-        <v>19</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>47</v>
+      </c>
+      <c r="M9" t="n">
         <v>4</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>480</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
@@ -910,50 +950,57 @@
           <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
         </is>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>09:17</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>09:38</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>17</v>
+      </c>
       <c r="L10" t="n">
-        <v>17</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>38</v>
+      </c>
+      <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>540</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="11">
@@ -965,50 +1012,57 @@
           <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
         </is>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
       <c r="L11" t="n">
-        <v>30</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>65</v>
+      </c>
+      <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>570</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="12">
@@ -1020,50 +1074,57 @@
           <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
         </is>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>10:51</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>23</v>
+      </c>
       <c r="L12" t="n">
-        <v>23</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>51</v>
+      </c>
+      <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>600</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="13">
@@ -1075,50 +1136,57 @@
           <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
         </is>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>10:47</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>19</v>
+      </c>
       <c r="L13" t="n">
-        <v>19</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>47</v>
+      </c>
+      <c r="M13" t="n">
         <v>4</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>600</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="14">
@@ -1130,50 +1198,57 @@
           <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
         </is>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>10:48</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
-        <v>20</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>48</v>
+      </c>
+      <c r="M14" t="n">
         <v>4</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>600</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
@@ -1185,50 +1260,57 @@
           <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
         </is>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>11:18</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>13</v>
+      </c>
       <c r="L15" t="n">
-        <v>13</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>48</v>
+      </c>
+      <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>630</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="16">
@@ -1240,50 +1322,57 @@
           <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
         </is>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11:26</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>12</v>
+      </c>
       <c r="L16" t="n">
-        <v>12</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+        <v>26</v>
+      </c>
+      <c r="M16" t="n">
         <v>2</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>660</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="17">
@@ -1295,50 +1384,57 @@
           <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
         </is>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
       <c r="L17" t="n">
-        <v>20</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>76</v>
+      </c>
+      <c r="M17" t="n">
         <v>8</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>690</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="18">
@@ -1350,50 +1446,57 @@
           <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
         </is>
       </c>
-      <c r="D18" t="b">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>11:51</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12:16</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>18</v>
+      </c>
       <c r="L18" t="n">
-        <v>18</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>46</v>
+      </c>
+      <c r="M18" t="n">
         <v>4</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>690</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="19">
@@ -1405,50 +1508,57 @@
           <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
         </is>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13:01</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>19</v>
+      </c>
       <c r="L19" t="n">
-        <v>19</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>61</v>
+      </c>
+      <c r="M19" t="n">
         <v>6</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>720</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1460,50 +1570,57 @@
           <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
         </is>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>26</v>
+      </c>
       <c r="L20" t="n">
-        <v>26</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>40</v>
+      </c>
+      <c r="M20" t="n">
         <v>2</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>720</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="21">
@@ -1515,50 +1632,57 @@
           <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
         </is>
       </c>
-      <c r="D21" t="b">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>12</v>
+      </c>
+      <c r="L21" t="n">
+        <v>19</v>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Trike</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>16/7/2024</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>17:19</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>12</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>1020</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="22">
@@ -1570,50 +1694,57 @@
           <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
         </is>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>7:40</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>08:38</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>16</v>
+      </c>
       <c r="L22" t="n">
-        <v>16</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>58</v>
+      </c>
+      <c r="M22" t="n">
         <v>6</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>460</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="23">
@@ -1625,50 +1756,57 @@
           <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
         </is>
       </c>
-      <c r="D23" t="b">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>08:27</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>08:37</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>16</v>
+      </c>
       <c r="L23" t="n">
-        <v>16</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>37</v>
+      </c>
+      <c r="M23" t="n">
         <v>3</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>480</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="24">
@@ -1680,50 +1818,57 @@
           <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
         </is>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>09:07</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>16</v>
+      </c>
       <c r="L24" t="n">
-        <v>16</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>37</v>
+      </c>
+      <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="n">
-        <v>510</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1735,50 +1880,57 @@
           <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
         </is>
       </c>
-      <c r="D25" t="b">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>8:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>09:01</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>17</v>
+      </c>
       <c r="L25" t="n">
-        <v>17</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>31</v>
+      </c>
+      <c r="M25" t="n">
         <v>2</v>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>510</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1790,50 +1942,57 @@
           <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
         </is>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>8:45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>8:45</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>09:35</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>15</v>
+      </c>
       <c r="L26" t="n">
-        <v>15</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>50</v>
+      </c>
+      <c r="M26" t="n">
         <v>5</v>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>525</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="27">
@@ -1845,50 +2004,57 @@
           <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
         </is>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>10:06</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>31</v>
+      </c>
       <c r="L27" t="n">
-        <v>31</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+        <v>66</v>
+      </c>
+      <c r="M27" t="n">
         <v>5</v>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="n">
-        <v>540</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="28">
@@ -1900,50 +2066,57 @@
           <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
         </is>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>9:20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9:20</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>25</v>
+      </c>
       <c r="L28" t="n">
-        <v>25</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>67</v>
+      </c>
+      <c r="M28" t="n">
         <v>6</v>
       </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="n">
-        <v>560</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
@@ -1955,50 +2128,57 @@
           <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
         </is>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10:05</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>14</v>
+      </c>
       <c r="L29" t="n">
-        <v>14</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>35</v>
+      </c>
+      <c r="M29" t="n">
         <v>3</v>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>570</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="30">
@@ -2010,50 +2190,57 @@
           <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
         </is>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>10:29</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10:24</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>19</v>
+      </c>
       <c r="L30" t="n">
-        <v>19</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>54</v>
+      </c>
+      <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>570</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2065,50 +2252,57 @@
           <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
         </is>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>11:03</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>21</v>
+      </c>
       <c r="L31" t="n">
-        <v>21</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>63</v>
+      </c>
+      <c r="M31" t="n">
         <v>6</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
-        <v>600</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="32">
@@ -2120,50 +2314,57 @@
           <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
         </is>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>10:54</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>19</v>
+      </c>
       <c r="L32" t="n">
-        <v>19</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>54</v>
+      </c>
+      <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>600</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="33">
@@ -2175,50 +2376,57 @@
           <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
-      <c r="D33" t="b">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>84</v>
+      </c>
       <c r="L33" t="n">
-        <v>84</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+        <v>119</v>
+      </c>
+      <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>600</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2230,50 +2438,57 @@
           <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
         </is>
       </c>
-      <c r="D34" t="b">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11:10</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>19</v>
+      </c>
       <c r="L34" t="n">
-        <v>19</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>40</v>
+      </c>
+      <c r="M34" t="n">
         <v>3</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
-        <v>630</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2285,50 +2500,57 @@
           <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
         </is>
       </c>
-      <c r="D35" t="b">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11:51</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>23</v>
+      </c>
       <c r="L35" t="n">
-        <v>23</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+        <v>51</v>
+      </c>
+      <c r="M35" t="n">
         <v>4</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>660</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="36">
@@ -2340,50 +2562,57 @@
           <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
         </is>
       </c>
-      <c r="D36" t="b">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11:32</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>11</v>
+      </c>
       <c r="L36" t="n">
-        <v>11</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+        <v>32</v>
+      </c>
+      <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>660</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2395,50 +2624,57 @@
           <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
         </is>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>12:48</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>20</v>
+      </c>
       <c r="L37" t="n">
-        <v>20</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>48</v>
+      </c>
+      <c r="M37" t="n">
         <v>4</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>720</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="38">
@@ -2450,50 +2686,57 @@
           <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
-      <c r="D38" t="b">
-        <v>0</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>14:29</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>68</v>
+      </c>
       <c r="L38" t="n">
-        <v>68</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>89</v>
+      </c>
+      <c r="M38" t="n">
         <v>3</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
-        <v>780</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="39">
@@ -2505,50 +2748,57 @@
           <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
         </is>
       </c>
-      <c r="D39" t="b">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>18:03</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>88</v>
+      </c>
       <c r="L39" t="n">
-        <v>88</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+        <v>123</v>
+      </c>
+      <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>960</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="40">
@@ -2560,52 +2810,60 @@
           <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
         </is>
       </c>
-      <c r="D40" t="b">
-        <v>0</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Sants</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sants</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>69</v>
+      </c>
       <c r="L40" t="n">
-        <v>69</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>90</v>
+      </c>
+      <c r="M40" t="n">
         <v>3</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>1080</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2617,7 +2875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:R48"/>
+  <dimension ref="B2:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2633,7 +2891,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>Treballador</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -2649,6 +2907,26 @@
       <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Hores Totals</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Treballador</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Sortida</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Hores</t>
         </is>
       </c>
     </row>
@@ -2661,8 +2939,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2676,6 +2956,24 @@
       </c>
       <c r="G3" t="n">
         <v>5.3</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2687,8 +2985,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2702,6 +3002,24 @@
       </c>
       <c r="G4" t="n">
         <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Fede Goss</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>8:15</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2713,8 +3031,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2723,11 +3043,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:57</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Gianluca</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2739,8 +3077,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>3</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2749,11 +3089,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08:42</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Laila</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -2765,8 +3123,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>4</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2775,11 +3135,29 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>08:42</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Vladi</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>9:15</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2791,8 +3169,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>5</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2801,11 +3181,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08:57</t>
+          <t>08:42</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Erick</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>9:45</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
@@ -2817,8 +3215,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>6</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2827,11 +3227,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08:42</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Sebastián</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2843,8 +3261,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>7</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2869,8 +3289,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>8</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2895,8 +3317,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>9</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2921,8 +3345,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>10</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2947,8 +3373,10 @@
           <t>Napoles</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>11</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2964,6 +3392,86 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="F16">
+        <f>SUM(G3:G14)</f>
+        <v/>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="L16">
+        <f>SUM(L3:L15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Num treballadors</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Num Rutes</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Total Paquets</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Trikes</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f>F20/F18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4 Wheeler</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <f>F21/F18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27"/>
+    <row r="28"/>
     <row r="29">
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2972,75 +3480,60 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Prioritari</t>
+          <t>Tipus Bici</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>Tipus Bici</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Hub</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>Hub</t>
+          <t>Hora Inici Ruta Plnif</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>Hora Inici Ruta Plnif</t>
+          <t>Hora Inici Ruta Real</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>Hora Inici Ruta Real</t>
+          <t>Hora Fi Ruta</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>Hora Fi Ruta</t>
+          <t>Inici Seguent Ruta</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>Inici Seguent Ruta</t>
+          <t>Temps Recorregut Ruta</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>Temps Recorregut Ruta</t>
+          <t>Temps Total Ruta</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
         <is>
-          <t>Temps Total Ruta</t>
+          <t>Num Entregues</t>
         </is>
       </c>
       <c r="N29" s="1" t="inlineStr">
         <is>
-          <t>Num Entregues</t>
+          <t>Assignació</t>
         </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
-        <is>
-          <t>Assignació</t>
-        </is>
-      </c>
-      <c r="P29" s="1" t="inlineStr">
-        <is>
-          <t>Assignacio</t>
-        </is>
-      </c>
-      <c r="Q29" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="inlineStr">
         <is>
           <t>Plnif vs Real Min</t>
         </is>
@@ -3055,50 +3548,57 @@
           <t>1721101633540 - 01 - NAPOLES - BALMES - 07:40</t>
         </is>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>7:40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>7:40</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>08:39</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>24</v>
+      </c>
       <c r="L30" t="n">
-        <v>24</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>59</v>
+      </c>
+      <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>460</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="31">
@@ -3110,50 +3610,57 @@
           <t>1721102082040 - 02 - NAPOLES - GOTIC - 07:45</t>
         </is>
       </c>
-      <c r="D31" t="b">
-        <v>0</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>7:45</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>07:35</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>08:16</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>08:26</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>13</v>
+      </c>
       <c r="L31" t="n">
-        <v>13</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>41</v>
+      </c>
+      <c r="M31" t="n">
         <v>4</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
-        <v>465</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="32">
@@ -3165,50 +3672,57 @@
           <t>1721102486645 - 03 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
-      <c r="D32" t="b">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>08:27</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>13</v>
+      </c>
       <c r="L32" t="n">
-        <v>13</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>27</v>
+      </c>
+      <c r="M32" t="n">
         <v>2</v>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>480</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="33">
@@ -3220,50 +3734,57 @@
           <t>1721102462855 - 04 - NAPOLES - GOTIC - 08:00</t>
         </is>
       </c>
-      <c r="D33" t="b">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>08:47</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>19</v>
+      </c>
       <c r="L33" t="n">
-        <v>19</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+        <v>47</v>
+      </c>
+      <c r="M33" t="n">
         <v>4</v>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>480</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="34">
@@ -3275,50 +3796,57 @@
           <t>1721101989601 - 06 - NAPOLES - BARCELONETA - 08:00</t>
         </is>
       </c>
-      <c r="D34" t="b">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>25</v>
+      </c>
       <c r="L34" t="n">
-        <v>25</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>60</v>
+      </c>
+      <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
-        <v>480</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="35">
@@ -3330,50 +3858,57 @@
           <t>1721101715356 - 07 - NAPOLES - DIAGONAL - W - 08:30</t>
         </is>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>09:02</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>27</v>
+      </c>
       <c r="L35" t="n">
-        <v>27</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+        <v>62</v>
+      </c>
+      <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>480</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="36">
@@ -3385,50 +3920,57 @@
           <t>1721102423348 - 05 - NAPOLES - URQUINAONA - 08:00</t>
         </is>
       </c>
-      <c r="D36" t="b">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>08:47</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>19</v>
+      </c>
       <c r="L36" t="n">
-        <v>19</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+        <v>47</v>
+      </c>
+      <c r="M36" t="n">
         <v>4</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>480</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="37">
@@ -3440,50 +3982,57 @@
           <t>1721102182608 - 08 - NAPOLES - ENRIC GRANADOS - 09:00</t>
         </is>
       </c>
-      <c r="D37" t="b">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>9:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>09:17</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>09:38</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>17</v>
+      </c>
       <c r="L37" t="n">
-        <v>17</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>38</v>
+      </c>
+      <c r="M37" t="n">
         <v>3</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>540</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="38">
@@ -3495,50 +4044,57 @@
           <t>1721099914915 - 09 - NAPOLES - P9 - W - 09:30</t>
         </is>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>30</v>
+      </c>
       <c r="L38" t="n">
-        <v>30</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>65</v>
+      </c>
+      <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
-        <v>570</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="39">
@@ -3550,50 +4106,57 @@
           <t>1721101666656 - 12 - NAPOLES - BALMES - 10:00</t>
         </is>
       </c>
-      <c r="D39" t="b">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>10:41</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>10:51</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>23</v>
+      </c>
       <c r="L39" t="n">
-        <v>23</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+        <v>51</v>
+      </c>
+      <c r="M39" t="n">
         <v>4</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>600</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="40">
@@ -3605,50 +4168,57 @@
           <t>1721102522098 - 11 - NAPOLES - GOTIC - W - 10:00</t>
         </is>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>10:47</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>19</v>
+      </c>
       <c r="L40" t="n">
-        <v>19</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>47</v>
+      </c>
+      <c r="M40" t="n">
         <v>4</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>600</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="41">
@@ -3660,50 +4230,57 @@
           <t>1721102546874 - 10 - NAPOLES - CATALUÑA - 10:00</t>
         </is>
       </c>
-      <c r="D41" t="b">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>10:48</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>20</v>
+      </c>
       <c r="L41" t="n">
-        <v>20</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+        <v>48</v>
+      </c>
+      <c r="M41" t="n">
         <v>4</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>600</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="42">
@@ -3715,50 +4292,57 @@
           <t>1721102119136 - 13 - NAPOLES - CATALUÑA - W - 10:30</t>
         </is>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>11:18</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>13</v>
+      </c>
       <c r="L42" t="n">
-        <v>13</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>48</v>
+      </c>
+      <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>630</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="43">
@@ -3770,50 +4354,57 @@
           <t>1721101949589 - 14 - NAPOLES - VERDAGUER - 11:00</t>
         </is>
       </c>
-      <c r="D43" t="b">
-        <v>0</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>11:26</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>12</v>
+      </c>
       <c r="L43" t="n">
-        <v>12</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>26</v>
+      </c>
+      <c r="M43" t="n">
         <v>2</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>660</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="44">
@@ -3825,50 +4416,57 @@
           <t>1721102224478 - 16 - NAPOLES - BORN - 11:30</t>
         </is>
       </c>
-      <c r="D44" t="b">
-        <v>0</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>20</v>
+      </c>
       <c r="L44" t="n">
-        <v>20</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>76</v>
+      </c>
+      <c r="M44" t="n">
         <v>8</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>690</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="45">
@@ -3880,50 +4478,57 @@
           <t>1721102651888 - 15 - NAPOLES - GOTIC - 11:30</t>
         </is>
       </c>
-      <c r="D45" t="b">
-        <v>0</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>11:51</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>12:16</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>18</v>
+      </c>
       <c r="L45" t="n">
-        <v>18</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>46</v>
+      </c>
+      <c r="M45" t="n">
         <v>4</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
-        <v>690</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="46">
@@ -3935,50 +4540,57 @@
           <t>1721102627472 - 17 - NAPOLES - GOTIC - 12:00</t>
         </is>
       </c>
-      <c r="D46" t="b">
-        <v>0</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4 wheels</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>13:01</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>19</v>
+      </c>
       <c r="L46" t="n">
-        <v>19</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>61</v>
+      </c>
+      <c r="M46" t="n">
         <v>6</v>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>720</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3990,50 +4602,57 @@
           <t>1721102268642 - 18 - NAPOLES - PUERTO - 12:00</t>
         </is>
       </c>
-      <c r="D47" t="b">
-        <v>0</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trike</t>
+          <t>16/7/2024</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16/7/2024</t>
+          <t>Napoles</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Napoles</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>26</v>
+      </c>
       <c r="L47" t="n">
-        <v>26</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>40</v>
+      </c>
+      <c r="M47" t="n">
         <v>2</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
-        <v>720</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>-25</v>
       </c>
     </row>
     <row r="48">
@@ -4045,50 +4664,3191 @@
           <t>1721102689216 - 19 - NAPOLES - TARDE - W - 17:00</t>
         </is>
       </c>
-      <c r="D48" t="b">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" t="n">
+        <v>19</v>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L53" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M53" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Q53" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R53" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S53" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T53" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1721101633540</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1721102082040</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>07:35</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>08:16</t>
+        </is>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1721101715356</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1721102182608</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>08:39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1721099914915</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>09:27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1721101949589</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1721102224478</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q62" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S62" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T62" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1721101989601</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1721102423348</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>1721102462855</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K71" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L71" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M71" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q71" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R71" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S71" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T71" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1721102486645</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1721101666656</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>1721102522098</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="I73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1721102651888</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="I74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1721102627472</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="J80" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K80" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L80" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M80" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q80" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R80" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S80" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T80" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1721102546874</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1721102119136</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>1721102689216</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="I82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1721102268642</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:T71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Hub</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Treballador</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Torn</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Hora Final Torn</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Hores Totals</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Treballador</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Sortida</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Hores</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>07:18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14:09</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Jordi</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12:43</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10:01</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Hans</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Jaime</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10:49</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="F11">
+        <f>SUM(G3:G9)</f>
+        <v/>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="L11">
+        <f>SUM(L3:L10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Num treballadors</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Num Rutes</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Total Paquets</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Trikes</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <f>F15/F13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4 Wheeler</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <f>F16/F13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24">
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Tipus Bici</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Hub</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Ruta Plnif</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>Hora Inici Ruta Real</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>Hora Fi Ruta</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>Inici Seguent Ruta</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>Temps Recorregut Ruta</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>Temps Total Ruta</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>Num Entregues</t>
+        </is>
+      </c>
+      <c r="N24" s="1" t="inlineStr">
+        <is>
+          <t>Assignació</t>
+        </is>
+      </c>
+      <c r="O24" s="1" t="inlineStr">
+        <is>
+          <t>Plnif vs Real Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1721100355845 - 01 - SANTS - NUMANCIA - 07:40</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>7:40</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>16</v>
+      </c>
+      <c r="L25" t="n">
+        <v>58</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1721100497594 - 02 - SANTS - TARRADELLAS - 08:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Trike</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>16/7/2024</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>17:19</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>8:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>08:27</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>16</v>
+      </c>
+      <c r="L26" t="n">
+        <v>37</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1721100630101 - 04 - SANTS - BERLIN - 08:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>16</v>
+      </c>
+      <c r="L27" t="n">
+        <v>37</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1721101262949 - 03 - SANTS - RAVAL - 08:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>17</v>
+      </c>
+      <c r="L28" t="n">
+        <v>31</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1721100247896 - 05 - SANTS - ROCAFORT - W - 08:45</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>8:45</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>15</v>
+      </c>
+      <c r="L29" t="n">
+        <v>50</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1721100922012 - 06 - SANTS - SANT RAMON - W - 09:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>10:06</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>31</v>
+      </c>
+      <c r="L30" t="n">
+        <v>66</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1721100178035 - 07 - SANTS - GOTIC - W - 09:20</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>9:20</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>67</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1721101127690 - 08 - SANTS - CLINIC - W - 09:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>14</v>
+      </c>
+      <c r="L32" t="n">
+        <v>35</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1721100593141 - 09 - SANTS - NUMANCIA - 09:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10:29</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>19</v>
+      </c>
+      <c r="L33" t="n">
+        <v>54</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1721100704935 - 12 - SANTS - CLINIC - W - 10:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>21</v>
+      </c>
+      <c r="L34" t="n">
+        <v>63</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1721101164491 - 11 - SANTS - SANT ANTONI - W - 10:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>19</v>
+      </c>
+      <c r="L35" t="n">
+        <v>54</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1721101394043 - 10 - S01 - SANTS - SYNLAB - 10:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>84</v>
+      </c>
+      <c r="L36" t="n">
+        <v>119</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1721101237043 - 13 - SANTS - GOTIC - 10:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>19</v>
+      </c>
+      <c r="L37" t="n">
+        <v>40</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1721100447653 - 15 - SANTS - GOTIC - 11:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>23</v>
+      </c>
+      <c r="L38" t="n">
+        <v>51</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1721101195978 - 14 - SANTS - ENTENÇA - 11:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4 wheels</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>11</v>
+      </c>
+      <c r="L39" t="n">
+        <v>32</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1721101020078 - 16 - SANTS - ARIBAU - W - 12:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>20</v>
+      </c>
+      <c r="L40" t="n">
+        <v>48</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1721101422578 - 17 - S02 - SANTS - SYNLAB - 13:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>14:14</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>68</v>
+      </c>
+      <c r="L41" t="n">
+        <v>89</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1721101452774 - 18 - S03 - SANTS - SYNLAB - 16:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>88</v>
+      </c>
+      <c r="L42" t="n">
+        <v>123</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1721101486211 - 19 - S04 - SANTS - SYNLAB - 18:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Trike</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>19:43</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>69</v>
+      </c>
+      <c r="L43" t="n">
+        <v>90</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R48" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S48" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T48" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1721100355845</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1721100497594</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1721100247896</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>1020</v>
-      </c>
-      <c r="R48" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1721100630101</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
         <v>0</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1721101262949</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>08:37</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1721100593141</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1721101127690</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1721100178035</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1721100447653</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>10:39</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1721101394043</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1721101237043</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1721101020078</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1721101422578</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K60" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L60" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M60" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q60" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R60" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S60" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T60" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1721100922012</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1721100704935</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1721101164491</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="I62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>1721101195978</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1721101452774</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1721101486211</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>19:33</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Temps Inici Torn</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Temps Fi Torn</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Temps Per paquet</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Temps entre rutes</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marge abans - W</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marge despres - W</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marge abans - No W</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marge despres - No W</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Temps maxim espera</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marge primera ruta torn</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maxim Hores Global</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flexibilitat +6</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Flexibilitat +4</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Flexibilitat -4</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pes Trike</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -2909,26 +2909,6 @@
           <t>Hores Totals</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Treballador</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>Sortida</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Hores</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="n">
@@ -2957,24 +2937,6 @@
       <c r="G3" t="n">
         <v>5.3</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Zoe</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>13:45</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
@@ -3003,24 +2965,6 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Fede Goss</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>8:15</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
@@ -3049,24 +2993,6 @@
       <c r="G5" t="n">
         <v>1.3</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Gianluca</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
@@ -3095,24 +3021,6 @@
       <c r="G6" t="n">
         <v>1.3</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Laila</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
@@ -3141,24 +3049,6 @@
       <c r="G7" t="n">
         <v>1.1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Vladi</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>9:15</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
@@ -3187,24 +3077,6 @@
       <c r="G8" t="n">
         <v>1.1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>9:45</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="n">
@@ -3233,24 +3105,6 @@
       <c r="G9" t="n">
         <v>0.7</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Sebastián</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="n">
@@ -3470,8 +3324,26 @@
         <v/>
       </c>
     </row>
-    <row r="27"/>
-    <row r="28"/>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Trikes Min En Hub</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4 Wheeler Min En Hub</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="29">
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -5455,26 +5327,6 @@
           <t>Hores Totals</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Treballador</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>Sortida</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Hores</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="n">
@@ -5503,24 +5355,6 @@
       <c r="G3" t="n">
         <v>6.8</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Jordi</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>7:30</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
@@ -5549,24 +5383,6 @@
       <c r="G4" t="n">
         <v>3.7</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Rocco</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>4.3</v>
-      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
@@ -5595,24 +5411,6 @@
       <c r="G5" t="n">
         <v>4.3</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Alejandro</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>8:00</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
@@ -5641,24 +5439,6 @@
       <c r="G6" t="n">
         <v>1.4</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Hans</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
@@ -5687,24 +5467,6 @@
       <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Jaime</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
@@ -5733,24 +5495,6 @@
       <c r="G8" t="n">
         <v>1.2</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Diego</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="n">
@@ -5858,8 +5602,26 @@
         <v/>
       </c>
     </row>
-    <row r="22"/>
-    <row r="23"/>
+    <row r="17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Trikes Min En Hub</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4 Wheeler Min En Hub</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="24">
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -7101,7 +6863,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="O43" t="n">
+      <c r="O43" s="2" t="n">
         <v>3</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,11 +534,11 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730183168707 - 02 - NAPOLES - GOTIC - W - 08:30</t>
+          <t>1731998803597 - 01 - NAPOLES - GOTIC - 08:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -547,11 +547,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -571,26 +571,26 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="M3" t="n">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -599,24 +599,24 @@
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730182013914 - 01 - NAPOLES - DIAGONAL - W - 08:30</t>
+          <t>1731999790486 - 06 - NAPOLES - GOTIC - 10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRIKE</t>
+          <t>4W</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,36 +626,36 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="M4" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>K</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -664,11 +664,11 @@
     </row>
     <row r="5">
       <c r="B5" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730183826011 - 05 - NAPOLES - P9 - W - ! - 10:00</t>
+          <t>1731999205451 - 03 - NAPOLES - SAGRERA - W - 10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -701,26 +701,26 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="M5" t="n">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730183577969 - 03 - NAPOLES - DIAGONAL - W - 10:00</t>
+          <t>1731999042123 - 02 - NAPOLES - P9 - W - 10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="M6" t="n">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
@@ -794,11 +794,11 @@
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730183671543 - 04 - NAPOLES - CATALUNYA - W - 10:00</t>
+          <t>1731999265927 - 04 - NAPOLES - TETUAN - W - 11:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -807,11 +807,11 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -821,49 +821,49 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="N7" t="n">
         <v>9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730184365016 - 07 - NAPOLES - GOTIC - W - 11:00</t>
+          <t>1731999825299 - 07 - NAPOLES - DIAGONAL - 11:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -872,11 +872,11 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -896,26 +896,26 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -928,7 +928,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730184302467 - 06 - NAPOLES - PASSEIG DE GRACIA11:00</t>
+          <t>1731999561009 - 05 - NAPOLES - ENRIC GRANADOS - 11:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -937,11 +937,11 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -956,44 +956,44 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730184427958 - 08 - NAPOLES - TARDE - 16:00</t>
+          <t>1732000039740 - 08 - NAPOLES - TARDE - 15:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1016,36 +1016,36 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>18:07</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>18:17</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1054,11 +1054,11 @@
     </row>
     <row r="11">
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730184739357 - 01 - SANTS - SANT - ANTONI - W -09:00</t>
+          <t>1732000314215 - 01 - SANTS - ESTACIO - W - 09:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1081,36 +1081,36 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1119,11 +1119,11 @@
     </row>
     <row r="12">
       <c r="B12" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730184819693 - 02 - SANTS - LES CORTS - W - 10:00</t>
+          <t>1732000504888 - 02 - SANTS - DIAGONAL - 10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1132,11 +1132,11 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1156,26 +1156,26 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="M12" t="n">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1184,11 +1184,11 @@
     </row>
     <row r="13">
       <c r="B13" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730184488854 - S01 - SANTS - SYNLAB - 10:00</t>
+          <t>1731998556866 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1221,26 +1221,26 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="M13" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1249,11 +1249,11 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730184584024 - S02 - SANTS - SYNLAB - 13:00</t>
+          <t>1732000594042 - 03 - SANTS - URGELL 10:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1262,11 +1262,11 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1276,36 +1276,36 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="M14" t="n">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1314,11 +1314,11 @@
     </row>
     <row r="15">
       <c r="B15" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730185133340 - 03 - SANTS - TARDE - W - 15:30</t>
+          <t>1731998598378 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1341,49 +1341,49 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="M15" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730184635223 - S03 - SANTS - SYNLAB - 16:30</t>
+          <t>1732000704516 - 04 - SANTS - TARDE - W - 15:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1392,57 +1392,122 @@
         </is>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>46</v>
+      </c>
+      <c r="M16" t="n">
+        <v>74</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1731998639325 - S03 - SANTS - SYNLAB - 16:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TRIKE</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>24</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Sants</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>16:24</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>18:31</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>18:41</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>85</v>
-      </c>
-      <c r="M16" t="n">
-        <v>127</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>125</v>
+      </c>
+      <c r="M17" t="n">
+        <v>167</v>
+      </c>
+      <c r="N17" t="n">
         <v>6</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="17"/>
+      <c r="P17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1454,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,11 +1598,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4">
@@ -1551,21 +1616,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
@@ -1589,11 +1654,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -1607,7 +1672,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1617,11 +1682,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="7">
@@ -1635,7 +1700,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1645,11 +1710,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8">
@@ -1663,269 +1728,232 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18:12</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
     <row r="10"/>
-    <row r="11">
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Total Hores</t>
-        </is>
-      </c>
-      <c r="F11">
-        <f>SUM(G3:G8)</f>
-        <v/>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Total Hores</t>
-        </is>
-      </c>
-      <c r="L11">
-        <f>SUM(L3:L10)</f>
-        <v/>
-      </c>
-    </row>
+    <row r="11"/>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Num treballadors</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="F12">
+        <f>SUM(G3:G9)</f>
+        <v/>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Total Hores</t>
+        </is>
+      </c>
+      <c r="L12">
+        <f>SUM(L3:L11)</f>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Num Rutes</t>
+          <t>Num treballadors</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>TRIKES</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" s="2">
-        <f>J13/F13</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
+          <t>Num Rutes</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TRIKES</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" s="2">
+        <f>J14/F14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Total Paquets</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>60</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="F15" t="n">
+        <v>80</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>4W</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f>J14/F13</f>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <f>J15/F14</f>
         <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>TRIKES Min</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="I16" t="inlineStr">
         <is>
+          <t>TRIKES Min</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="I17" t="inlineStr">
+        <is>
           <t>4w  Min</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18"/>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>
     <row r="22"/>
-    <row r="23">
-      <c r="C23" s="1" t="inlineStr">
+    <row r="23"/>
+    <row r="24">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>Tipus Bici</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E24" s="1" t="inlineStr">
         <is>
           <t>Pes</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>Hub</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
+      <c r="H24" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Plnif</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I24" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Real</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J24" s="1" t="inlineStr">
         <is>
           <t>Hora Fi Ruta</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K24" s="1" t="inlineStr">
         <is>
           <t>Inici Seguent Ruta</t>
         </is>
       </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="L24" s="1" t="inlineStr">
         <is>
           <t>Temps Recorregut Ruta</t>
         </is>
       </c>
-      <c r="M23" s="1" t="inlineStr">
+      <c r="M24" s="1" t="inlineStr">
         <is>
           <t>Temps Total Ruta</t>
         </is>
       </c>
-      <c r="N23" s="1" t="inlineStr">
+      <c r="N24" s="1" t="inlineStr">
         <is>
           <t>Num Entregues</t>
         </is>
       </c>
-      <c r="O23" s="1" t="inlineStr">
+      <c r="O24" s="1" t="inlineStr">
         <is>
           <t>Assignació</t>
         </is>
       </c>
-      <c r="P23" s="1" t="inlineStr">
+      <c r="P24" s="1" t="inlineStr">
         <is>
           <t>Plnif vs Real Min</t>
         </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1730183168707 - 02 - NAPOLES - GOTIC - W - 08:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>TRIKE</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>18</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Napoles</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>09:37</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>21</v>
-      </c>
-      <c r="M24" t="n">
-        <v>77</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730182013914 - 01 - NAPOLES - DIAGONAL - W - 08:30</t>
+          <t>1731998803597 - 01 - NAPOLES - GOTIC - 08:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1934,11 +1962,11 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1958,22 +1986,22 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M25" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1986,24 +2014,24 @@
     </row>
     <row r="26">
       <c r="B26" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730183826011 - 05 - NAPOLES - P9 - W - ! - 10:00</t>
+          <t>1731999790486 - 06 - NAPOLES - GOTIC - 10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TRIKE</t>
+          <t>4W</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2023,26 +2051,26 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M26" t="n">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="N26" t="n">
         <v>8</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>K</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2051,11 +2079,11 @@
     </row>
     <row r="27">
       <c r="B27" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730183577969 - 03 - NAPOLES - DIAGONAL - W - 10:00</t>
+          <t>1731999205451 - 03 - NAPOLES - SAGRERA - W - 10:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2064,11 +2092,11 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2088,26 +2116,26 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:29</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="M27" t="n">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2116,11 +2144,11 @@
     </row>
     <row r="28">
       <c r="B28" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730183671543 - 04 - NAPOLES - CATALUNYA - W - 10:00</t>
+          <t>1731999042123 - 02 - NAPOLES - P9 - W - 10:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2129,11 +2157,11 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2153,26 +2181,26 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="M28" t="n">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2181,11 +2209,11 @@
     </row>
     <row r="29">
       <c r="B29" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730184365016 - 07 - NAPOLES - GOTIC - W - 11:00</t>
+          <t>1731999265927 - 04 - NAPOLES - TETUAN - W - 11:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2194,11 +2222,11 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2213,44 +2241,44 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730184302467 - 06 - NAPOLES - PASSEIG DE GRACIA11:00</t>
+          <t>1731999825299 - 07 - NAPOLES - DIAGONAL - 11:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2259,11 +2287,11 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2278,44 +2306,44 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M30" t="n">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730184427958 - 08 - NAPOLES - TARDE - 16:00</t>
+          <t>1731999561009 - 05 - NAPOLES - ENRIC GRANADOS - 11:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2324,11 +2352,11 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2338,359 +2366,457 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="M31" t="n">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>E</t>
         </is>
       </c>
       <c r="P31" t="n">
         <v>-10</v>
       </c>
     </row>
-    <row r="32"/>
+    <row r="32">
+      <c r="B32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1732000039740 - 08 - NAPOLES - TARDE - 15:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TRIKE</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>18:07</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>104</v>
+      </c>
+      <c r="M32" t="n">
+        <v>167</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>-10</v>
+      </c>
+    </row>
     <row r="33"/>
     <row r="34"/>
     <row r="35"/>
-    <row r="36">
-      <c r="B36" t="inlineStr">
+    <row r="36"/>
+    <row r="37">
+      <c r="B37" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="D37" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E37" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K37" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L36" s="1" t="inlineStr">
+      <c r="L37" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M36" s="1" t="inlineStr">
+      <c r="M37" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="Q36" s="1" t="inlineStr">
+      <c r="Q37" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="R36" s="1" t="inlineStr">
+      <c r="R37" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="S36" s="1" t="inlineStr">
+      <c r="S37" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="T36" s="1" t="inlineStr">
+      <c r="T37" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1730182013914</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>10:27</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>1730183168707</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>08:20</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="P37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1730183577969</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>11:26</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1731998803597</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1731999205451</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>13:19</t>
+        </is>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1731999042123</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1730184302467</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>11:37</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>8</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>1730183826011</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>11:32</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1731999265927</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="40"/>
     <row r="41"/>
     <row r="42"/>
     <row r="43"/>
     <row r="44"/>
-    <row r="45">
-      <c r="B45" t="inlineStr">
+    <row r="45"/>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="Q46" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="R46" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="S46" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="T46" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="J45" s="1" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="B47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1731999790486</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>12:11</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1731999561009</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1731999825299</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="D55" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L45" s="1" t="inlineStr">
+      <c r="E55" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M45" s="1" t="inlineStr">
+      <c r="F55" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="Q45" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="R45" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="S45" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="T45" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="1" t="n">
+    </row>
+    <row r="56">
+      <c r="B56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1730183671543</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>11:17</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>1730184365016</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="P46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1730184427958</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>16:54</t>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1732000039740</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>18:07</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2715,7 +2841,7 @@
   <cols>
     <col width="2" customWidth="1" min="1" max="1"/>
     <col width="3" customWidth="1" min="2" max="2"/>
-    <col width="55" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
@@ -2774,21 +2900,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -2802,7 +2928,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2812,11 +2938,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>14:28</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5">
@@ -2830,7 +2956,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2840,11 +2966,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -2858,21 +2984,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
@@ -2896,11 +3022,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18:36</t>
+          <t>19:36</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8"/>
@@ -2942,7 +3068,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2950,7 +3076,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K12" s="2">
         <f>J12/F12</f>
@@ -2964,7 +3090,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2986,7 +3112,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3083,7 +3209,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730184739357 - 01 - SANTS - SANT - ANTONI - W -09:00</t>
+          <t>1732000314215 - 01 - SANTS - ESTACIO - W - 09:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3092,11 +3218,11 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3106,36 +3232,36 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -3148,7 +3274,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730184819693 - 02 - SANTS - LES CORTS - W - 10:00</t>
+          <t>1732000504888 - 02 - SANTS - DIAGONAL - 10:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3157,11 +3283,11 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3181,26 +3307,26 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="M24" t="n">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -3213,7 +3339,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730184488854 - S01 - SANTS - SYNLAB - 10:00</t>
+          <t>1731998556866 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3226,7 +3352,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3246,26 +3372,26 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="M25" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -3278,7 +3404,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730184584024 - S02 - SANTS - SYNLAB - 13:00</t>
+          <t>1732000594042 - 03 - SANTS - URGELL 10:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3287,11 +3413,11 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3301,36 +3427,36 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="M26" t="n">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3343,7 +3469,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730185133340 - 03 - SANTS - TARDE - W - 15:30</t>
+          <t>1731998598378 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3352,11 +3478,11 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>29/10/2024</t>
+          <t>19/11/2024</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3366,40 +3492,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>14:33</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="M27" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N27" t="n">
         <v>3</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="28">
@@ -3408,7 +3534,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730184635223 - S03 - SANTS - SYNLAB - 16:30</t>
+          <t>1732000704516 - 04 - SANTS - TARDE - W - 15:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3417,310 +3543,397 @@
         </is>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>46</v>
+      </c>
+      <c r="M28" t="n">
+        <v>74</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1731998639325 - S03 - SANTS - SYNLAB - 16:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TRIKE</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>24</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>29/10/2024</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Sants</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>16:24</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>18:31</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>18:41</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>85</v>
-      </c>
-      <c r="M28" t="n">
-        <v>127</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>19:41</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>125</v>
+      </c>
+      <c r="M29" t="n">
+        <v>167</v>
+      </c>
+      <c r="N29" t="n">
         <v>6</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="29"/>
+      <c r="P29" t="n">
+        <v>14</v>
+      </c>
+    </row>
     <row r="30"/>
     <row r="31"/>
     <row r="32"/>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
+    <row r="33"/>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="D34" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E34" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K34" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L33" s="1" t="inlineStr">
+      <c r="L34" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M33" s="1" t="inlineStr">
+      <c r="M34" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q33" s="1" t="inlineStr">
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Q34" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="R33" s="1" t="inlineStr">
+      <c r="R34" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="S33" s="1" t="inlineStr">
+      <c r="S34" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="T33" s="1" t="inlineStr">
+      <c r="T34" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="1" t="n">
+    <row r="35">
+      <c r="B35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1730184739357</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>08:50</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>10:10</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1732000314215</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>1730184488854</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1732000504888</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>11:48</t>
-        </is>
-      </c>
-      <c r="P34" s="1" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>12:23</t>
+        </is>
+      </c>
+      <c r="P35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>1730184819693</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1731998556866</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>11:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1731998598378</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>12</v>
+      </c>
+    </row>
     <row r="37"/>
     <row r="38"/>
     <row r="39"/>
     <row r="40"/>
     <row r="41"/>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
+    <row r="42"/>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="D43" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E43" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F43" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J43" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K43" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L42" s="1" t="inlineStr">
+      <c r="L43" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M42" s="1" t="inlineStr">
+      <c r="M43" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="1" t="n">
+    <row r="44">
+      <c r="B44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1730184584024</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>12:50</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1732000594042</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>12:57</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>1730185133340</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1732000704516</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>15:20</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>16:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="I44" s="1" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="I45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>1730184635223</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>16:24</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>18:31</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1731998639325</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>16:44</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>19:31</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -571,19 +571,19 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="L3" t="n">
+        <v>21</v>
+      </c>
+      <c r="M3" t="n">
         <v>84</v>
-      </c>
-      <c r="M3" t="n">
-        <v>147</v>
       </c>
       <c r="N3" t="n">
         <v>9</v>
@@ -631,35 +631,35 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="L4" t="n">
+        <v>29</v>
+      </c>
+      <c r="M4" t="n">
         <v>85</v>
-      </c>
-      <c r="M4" t="n">
-        <v>141</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="5">
@@ -701,26 +701,26 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="L5" t="n">
+        <v>41</v>
+      </c>
+      <c r="M5" t="n">
         <v>125</v>
-      </c>
-      <c r="M5" t="n">
-        <v>209</v>
       </c>
       <c r="N5" t="n">
         <v>12</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -766,26 +766,26 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="L6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M6" t="n">
         <v>120</v>
-      </c>
-      <c r="M6" t="n">
-        <v>190</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -826,35 +826,35 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="L7" t="n">
+        <v>23</v>
+      </c>
+      <c r="M7" t="n">
         <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>149</v>
       </c>
       <c r="N7" t="n">
         <v>9</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>J</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="8">
@@ -896,19 +896,19 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="L8" t="n">
+        <v>34</v>
+      </c>
+      <c r="M8" t="n">
         <v>111</v>
-      </c>
-      <c r="M8" t="n">
-        <v>188</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
@@ -961,19 +961,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="L9" t="n">
+        <v>30</v>
+      </c>
+      <c r="M9" t="n">
         <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>198</v>
       </c>
       <c r="N9" t="n">
         <v>12</v>
@@ -1026,19 +1026,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>18:17</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="L10" t="n">
+        <v>41</v>
+      </c>
+      <c r="M10" t="n">
         <v>104</v>
-      </c>
-      <c r="M10" t="n">
-        <v>167</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
@@ -1091,26 +1091,26 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="L11" t="n">
+        <v>28</v>
+      </c>
+      <c r="M11" t="n">
         <v>77</v>
-      </c>
-      <c r="M11" t="n">
-        <v>126</v>
       </c>
       <c r="N11" t="n">
         <v>7</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1156,26 +1156,26 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="L12" t="n">
+        <v>31</v>
+      </c>
+      <c r="M12" t="n">
         <v>87</v>
-      </c>
-      <c r="M12" t="n">
-        <v>143</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>K</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1221,26 +1221,26 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="L13" t="n">
+        <v>79</v>
+      </c>
+      <c r="M13" t="n">
         <v>114</v>
-      </c>
-      <c r="M13" t="n">
-        <v>149</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>F</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1286,19 +1286,19 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="L14" t="n">
+        <v>31</v>
+      </c>
+      <c r="M14" t="n">
         <v>94</v>
-      </c>
-      <c r="M14" t="n">
-        <v>157</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
@@ -1346,35 +1346,35 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="L15" t="n">
+        <v>66</v>
+      </c>
+      <c r="M15" t="n">
         <v>87</v>
-      </c>
-      <c r="M15" t="n">
-        <v>108</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16">
@@ -1416,26 +1416,26 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="L16" t="n">
+        <v>18</v>
+      </c>
+      <c r="M16" t="n">
         <v>46</v>
-      </c>
-      <c r="M16" t="n">
-        <v>74</v>
       </c>
       <c r="N16" t="n">
         <v>4</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1476,35 +1476,35 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19:31</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>19:41</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="L17" t="n">
+        <v>83</v>
+      </c>
+      <c r="M17" t="n">
         <v>125</v>
-      </c>
-      <c r="M17" t="n">
-        <v>167</v>
       </c>
       <c r="N17" t="n">
         <v>6</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="18"/>
@@ -1598,11 +1598,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1626,11 +1626,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1654,11 +1654,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
@@ -1672,21 +1672,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1710,11 +1710,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9">
@@ -1766,114 +1766,114 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>18:12</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10"/>
     <row r="11"/>
-    <row r="12">
-      <c r="E12" t="inlineStr">
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="F12">
-        <f>SUM(G3:G9)</f>
+      <c r="F17">
+        <f>SUM(G3:G14)</f>
         <v/>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="L12">
-        <f>SUM(L3:L11)</f>
+      <c r="L17">
+        <f>SUM(L3:L16)</f>
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" t="inlineStr">
+    <row r="18">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Num treballadors</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F18" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="E14" t="inlineStr">
+    <row r="19">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Num Rutes</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F19" t="n">
         <v>8</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>TRIKES</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="J19" t="n">
         <v>7</v>
       </c>
-      <c r="K14" s="2">
-        <f>J14/F14</f>
+      <c r="K19" s="2">
+        <f>J19/F19</f>
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="E15" t="inlineStr">
+    <row r="20">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Total Paquets</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F20" t="n">
         <v>80</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>4W</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="2">
-        <f>J15/F14</f>
+      <c r="K20" s="2">
+        <f>J20/F19</f>
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="I16" t="inlineStr">
+    <row r="21">
+      <c r="I21" t="inlineStr">
         <is>
           <t>TRIKES Min</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="J21" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="I17" t="inlineStr">
+    <row r="22">
+      <c r="I22" t="inlineStr">
         <is>
           <t>4w  Min</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="J22" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
     <row r="23"/>
     <row r="24">
       <c r="C24" s="1" t="inlineStr">
@@ -1986,19 +1986,19 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>09:44</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="L25" t="n">
+        <v>21</v>
+      </c>
+      <c r="M25" t="n">
         <v>84</v>
-      </c>
-      <c r="M25" t="n">
-        <v>147</v>
       </c>
       <c r="N25" t="n">
         <v>9</v>
@@ -2046,35 +2046,35 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="L26" t="n">
+        <v>29</v>
+      </c>
+      <c r="M26" t="n">
         <v>85</v>
-      </c>
-      <c r="M26" t="n">
-        <v>141</v>
       </c>
       <c r="N26" t="n">
         <v>8</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>-10</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="27">
@@ -2116,26 +2116,26 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13:29</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="L27" t="n">
+        <v>41</v>
+      </c>
+      <c r="M27" t="n">
         <v>125</v>
-      </c>
-      <c r="M27" t="n">
-        <v>209</v>
       </c>
       <c r="N27" t="n">
         <v>12</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2181,26 +2181,26 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="L28" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" t="n">
         <v>120</v>
-      </c>
-      <c r="M28" t="n">
-        <v>190</v>
       </c>
       <c r="N28" t="n">
         <v>10</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2241,35 +2241,35 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="L29" t="n">
+        <v>23</v>
+      </c>
+      <c r="M29" t="n">
         <v>86</v>
-      </c>
-      <c r="M29" t="n">
-        <v>149</v>
       </c>
       <c r="N29" t="n">
         <v>9</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>J</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="30">
@@ -2311,19 +2311,19 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="L30" t="n">
+        <v>34</v>
+      </c>
+      <c r="M30" t="n">
         <v>111</v>
-      </c>
-      <c r="M30" t="n">
-        <v>188</v>
       </c>
       <c r="N30" t="n">
         <v>11</v>
@@ -2376,19 +2376,19 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:54</t>
         </is>
       </c>
       <c r="L31" t="n">
+        <v>30</v>
+      </c>
+      <c r="M31" t="n">
         <v>114</v>
-      </c>
-      <c r="M31" t="n">
-        <v>198</v>
       </c>
       <c r="N31" t="n">
         <v>12</v>
@@ -2441,19 +2441,19 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>18:17</t>
+          <t>17:14</t>
         </is>
       </c>
       <c r="L32" t="n">
+        <v>41</v>
+      </c>
+      <c r="M32" t="n">
         <v>104</v>
-      </c>
-      <c r="M32" t="n">
-        <v>167</v>
       </c>
       <c r="N32" t="n">
         <v>9</v>
@@ -2499,32 +2499,32 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
           <t>D</t>
-        </is>
-      </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
-        <is>
-          <t>Inici Ruta</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>Fi Ruta</t>
-        </is>
-      </c>
-      <c r="M37" s="1" t="inlineStr">
-        <is>
-          <t>Temps Espera Min</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>F</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="I38" s="1" t="n">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="P38" s="1" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:50</t>
         </is>
       </c>
     </row>
@@ -2610,17 +2610,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1731999265927</t>
+          <t>1731999790486</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:26</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2636,7 +2636,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J46" s="1" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Q46" s="1" t="inlineStr">
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1731999790486</t>
+          <t>1731999561009</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="I47" s="1" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1731999561009</t>
+          <t>1731999825299</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="P47" s="1" t="n">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>1731999825299</t>
+          <t>1731999265927</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:16</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>18:07</t>
+          <t>17:04</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2910,11 +2910,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2938,11 +2938,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14:28</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -2994,11 +2994,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
@@ -3012,269 +3012,232 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14:22</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>15:08</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>19:36</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18:26</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
     <row r="9"/>
-    <row r="10">
-      <c r="E10" t="inlineStr">
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="F10">
-        <f>SUM(G3:G7)</f>
+      <c r="F16">
+        <f>SUM(G3:G13)</f>
         <v/>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Total Hores</t>
         </is>
       </c>
-      <c r="L10">
-        <f>SUM(L3:L9)</f>
+      <c r="L16">
+        <f>SUM(L3:L15)</f>
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" t="inlineStr">
+    <row r="17">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Num treballadors</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="inlineStr">
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Num Rutes</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F18" t="n">
         <v>7</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>TRIKES</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="J18" t="n">
         <v>7</v>
       </c>
-      <c r="K12" s="2">
-        <f>J12/F12</f>
+      <c r="K18" s="2">
+        <f>J18/F18</f>
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" t="inlineStr">
+    <row r="19">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Total Paquets</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F19" t="n">
         <v>42</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>4W</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="2">
-        <f>J13/F12</f>
+      <c r="K19" s="2">
+        <f>J19/F18</f>
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="I14" t="inlineStr">
+    <row r="20">
+      <c r="I20" t="inlineStr">
         <is>
           <t>TRIKES Min</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="J20" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="15">
-      <c r="I15" t="inlineStr">
+    <row r="21">
+      <c r="I21" t="inlineStr">
         <is>
           <t>4w  Min</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22">
-      <c r="C22" s="1" t="inlineStr">
+    <row r="22"/>
+    <row r="23">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Tipus Bici</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>Pes</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>Hub</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="H23" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Plnif</t>
         </is>
       </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="I23" s="1" t="inlineStr">
         <is>
           <t>Hora Inici Ruta Real</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J23" s="1" t="inlineStr">
         <is>
           <t>Hora Fi Ruta</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K23" s="1" t="inlineStr">
         <is>
           <t>Inici Seguent Ruta</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
+      <c r="L23" s="1" t="inlineStr">
         <is>
           <t>Temps Recorregut Ruta</t>
         </is>
       </c>
-      <c r="M22" s="1" t="inlineStr">
+      <c r="M23" s="1" t="inlineStr">
         <is>
           <t>Temps Total Ruta</t>
         </is>
       </c>
-      <c r="N22" s="1" t="inlineStr">
+      <c r="N23" s="1" t="inlineStr">
         <is>
           <t>Num Entregues</t>
         </is>
       </c>
-      <c r="O22" s="1" t="inlineStr">
+      <c r="O23" s="1" t="inlineStr">
         <is>
           <t>Assignació</t>
         </is>
       </c>
-      <c r="P22" s="1" t="inlineStr">
+      <c r="P23" s="1" t="inlineStr">
         <is>
           <t>Plnif vs Real Min</t>
         </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1732000314215 - 01 - SANTS - ESTACIO - W - 09:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>TRIKE</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>48</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>19/11/2024</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Sants</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>11:26</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>11:36</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>77</v>
-      </c>
-      <c r="M23" t="n">
-        <v>126</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>-10</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1732000504888 - 02 - SANTS - DIAGONAL - 10:00</t>
+          <t>1732000314215 - 01 - SANTS - ESTACIO - W - 09:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3283,7 +3246,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3297,36 +3260,36 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>9:30</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="M24" t="n">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -3335,11 +3298,11 @@
     </row>
     <row r="25">
       <c r="B25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1731998556866 - S01 - SANTS - SYNLAB - 10:00</t>
+          <t>1732000504888 - 02 - SANTS - DIAGONAL - 10:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3348,7 +3311,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3372,26 +3335,26 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="M25" t="n">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -3400,11 +3363,11 @@
     </row>
     <row r="26">
       <c r="B26" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1732000594042 - 03 - SANTS - URGELL 10:30</t>
+          <t>1731998556866 - S01 - SANTS - SYNLAB - 10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3413,7 +3376,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3427,36 +3390,36 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>09:50</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M26" t="n">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3465,11 +3428,11 @@
     </row>
     <row r="27">
       <c r="B27" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1731998598378 - S02 - SANTS - SYNLAB - 13:00</t>
+          <t>1732000594042 - 03 - SANTS - URGELL 10:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3478,7 +3441,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3492,49 +3455,49 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>11:54</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M27" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>-25</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1732000704516 - 04 - SANTS - TARDE - W - 15:30</t>
+          <t>1731998598378 - S02 - SANTS - SYNLAB - 13:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3543,7 +3506,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3557,36 +3520,36 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>16:44</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M28" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -3595,227 +3558,269 @@
     </row>
     <row r="29">
       <c r="B29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1732000704516 - 04 - SANTS - TARDE - W - 15:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TRIKE</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sants</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>18</v>
+      </c>
+      <c r="M29" t="n">
+        <v>46</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>1731998639325 - S03 - SANTS - SYNLAB - 16:30</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>TRIKE</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="E30" t="n">
         <v>24</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>19/11/2024</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Sants</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>16:44</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>19:31</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>19:41</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18:31</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>83</v>
+      </c>
+      <c r="M30" t="n">
         <v>125</v>
       </c>
-      <c r="M29" t="n">
-        <v>167</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="N30" t="n">
         <v>6</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>-14</v>
+      </c>
+    </row>
     <row r="31"/>
     <row r="32"/>
     <row r="33"/>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
+    <row r="34"/>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="D35" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E35" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F35" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K35" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L34" s="1" t="inlineStr">
+      <c r="L35" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M34" s="1" t="inlineStr">
+      <c r="M35" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="Q34" s="1" t="inlineStr">
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="R34" s="1" t="inlineStr">
+      <c r="R35" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="S34" s="1" t="inlineStr">
+      <c r="S35" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="T34" s="1" t="inlineStr">
+      <c r="T35" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="1" t="n">
+    <row r="36">
+      <c r="B36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>1732000314215</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>09:20</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>11:26</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="I36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1731998556866</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>1732000504888</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>12:23</t>
-        </is>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1731998556866</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>12:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="I36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>1731998598378</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>12:35</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>14:23</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>12</v>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>11:17</t>
+        </is>
       </c>
     </row>
     <row r="37"/>
@@ -3824,116 +3829,160 @@
     <row r="40"/>
     <row r="41"/>
     <row r="42"/>
-    <row r="43">
-      <c r="B43" t="inlineStr">
+    <row r="43"/>
+    <row r="44">
+      <c r="B44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="D44" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E44" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F44" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K44" s="1" t="inlineStr">
         <is>
           <t>Inici Ruta</t>
         </is>
       </c>
-      <c r="L43" s="1" t="inlineStr">
+      <c r="L44" s="1" t="inlineStr">
         <is>
           <t>Fi Ruta</t>
         </is>
       </c>
-      <c r="M43" s="1" t="inlineStr">
+      <c r="M44" s="1" t="inlineStr">
         <is>
           <t>Temps Espera Min</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="1" t="n">
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q44" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="R44" s="1" t="inlineStr">
+        <is>
+          <t>Inici Ruta</t>
+        </is>
+      </c>
+      <c r="S44" s="1" t="inlineStr">
+        <is>
+          <t>Fi Ruta</t>
+        </is>
+      </c>
+      <c r="T44" s="1" t="inlineStr">
+        <is>
+          <t>Temps Espera Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>1732000594042</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>10:20</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>12:57</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="n">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>11:54</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1731998598378</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>1732000704516</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>15:20</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>16:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="I45" s="1" t="n">
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="P46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>1731998639325</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>16:44</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>19:31</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
         <v>0</v>
       </c>
     </row>
